--- a/AfDD_2025_Annex_Table_Tab07.xlsx
+++ b/AfDD_2025_Annex_Table_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CBBB49E-B0AE-4666-8EC3-E80CAA277D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9073333E-4A9B-4504-91C8-AB7AA07AB555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{0B067686-3B95-4410-BC6D-BD487C778603}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{68A91227-3C74-4A23-AB34-CE5C3B3AA707}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="178">
   <si>
     <t>Table 7: Labour force characteristics</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>Update will be coming soon</t>
-  </si>
-  <si>
     <t>SWZ</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Malawi</t>
+  </si>
+  <si>
+    <t>..</t>
   </si>
   <si>
     <t>MOZ</t>
@@ -580,7 +580,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,13 +649,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -1033,7 +1026,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1084,33 +1077,30 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1126,22 +1116,22 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1207,28 +1197,28 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1246,16 +1236,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1288,31 +1278,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1596,7 +1586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41731C6-F668-4C8D-A4D8-99F4764FC3A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6934FA4C-5C84-4503-9E78-DA45EF7AFA34}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1608,8 +1598,8 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="14.140625" style="97" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="97" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="14.140625" style="96" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="96" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1688,1048 +1678,2390 @@
       <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="12">
+        <v>75.75</v>
+      </c>
+      <c r="D3" s="13">
+        <v>73.224000000000004</v>
+      </c>
+      <c r="E3" s="14">
+        <v>78.396000000000001</v>
+      </c>
+      <c r="F3" s="12">
+        <v>92.188999999999993</v>
+      </c>
+      <c r="G3" s="13">
+        <v>95.426000000000002</v>
+      </c>
+      <c r="H3" s="14">
+        <v>88.822000000000003</v>
+      </c>
+      <c r="I3" s="15">
+        <v>60.303804999999997</v>
+      </c>
+      <c r="J3" s="12">
+        <v>34.753149999999998</v>
+      </c>
+      <c r="K3" s="13">
+        <v>4.9430449999999997</v>
+      </c>
+      <c r="L3" s="13">
+        <v>56.125200999999997</v>
+      </c>
+      <c r="M3" s="14">
+        <v>4.178604</v>
+      </c>
+      <c r="N3" s="12">
+        <v>81.093338000000003</v>
+      </c>
+      <c r="O3" s="13">
+        <v>10.067182000000001</v>
+      </c>
+      <c r="P3" s="14">
+        <v>8.83948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="17">
+        <v>68.275999999999996</v>
+      </c>
+      <c r="D4" s="18">
+        <v>63.426000000000002</v>
+      </c>
+      <c r="E4" s="19">
+        <v>73.194999999999993</v>
+      </c>
+      <c r="F4" s="17">
+        <v>76.137</v>
+      </c>
+      <c r="G4" s="18">
+        <v>73.233000000000004</v>
+      </c>
+      <c r="H4" s="19">
+        <v>78.685000000000002</v>
+      </c>
+      <c r="I4" s="20">
+        <v>28.825192999999999</v>
+      </c>
+      <c r="J4" s="17">
+        <v>68.869867999999997</v>
+      </c>
+      <c r="K4" s="18">
+        <v>2.3049390000000001</v>
+      </c>
+      <c r="L4" s="18">
+        <v>25.95861</v>
+      </c>
+      <c r="M4" s="19">
+        <v>2.8665829999999999</v>
+      </c>
+      <c r="N4" s="17">
+        <v>67.704774</v>
+      </c>
+      <c r="O4" s="18">
+        <v>17.562732</v>
+      </c>
+      <c r="P4" s="19">
+        <v>14.732494000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="17">
+        <v>47.396999999999998</v>
+      </c>
+      <c r="D5" s="22">
+        <v>44.886000000000003</v>
+      </c>
+      <c r="E5" s="23">
+        <v>50.064</v>
+      </c>
+      <c r="F5" s="17">
+        <v>53.296999999999997</v>
+      </c>
+      <c r="G5" s="22">
+        <v>56.356000000000002</v>
+      </c>
+      <c r="H5" s="23">
+        <v>50.305999999999997</v>
+      </c>
+      <c r="I5" s="24">
+        <v>32.899607000000003</v>
+      </c>
+      <c r="J5" s="17">
+        <v>64.932564999999997</v>
+      </c>
+      <c r="K5" s="22">
+        <v>2.168231</v>
+      </c>
+      <c r="L5" s="22">
+        <v>30.786145000000001</v>
+      </c>
+      <c r="M5" s="23">
+        <v>2.1134620000000002</v>
+      </c>
+      <c r="N5" s="17">
+        <v>47.421489000000001</v>
+      </c>
+      <c r="O5" s="22">
+        <v>22.901295000000001</v>
+      </c>
+      <c r="P5" s="23">
+        <v>29.677216000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="17">
+        <v>58.097000000000001</v>
+      </c>
+      <c r="D6" s="22">
+        <v>49.095999999999997</v>
+      </c>
+      <c r="E6" s="23">
+        <v>67.902000000000001</v>
+      </c>
+      <c r="F6" s="17">
+        <v>80.853999999999999</v>
+      </c>
+      <c r="G6" s="22">
+        <v>81.061000000000007</v>
+      </c>
+      <c r="H6" s="23">
+        <v>80.697999999999993</v>
+      </c>
+      <c r="I6" s="24">
+        <v>32.978721999999998</v>
+      </c>
+      <c r="J6" s="17">
+        <v>61.271942000000003</v>
+      </c>
+      <c r="K6" s="22">
+        <v>5.7493359999999996</v>
+      </c>
+      <c r="L6" s="22">
+        <v>32.165258999999999</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0.81346300000000005</v>
+      </c>
+      <c r="N6" s="17">
+        <v>62.667870999999998</v>
+      </c>
+      <c r="O6" s="22">
+        <v>12.625567</v>
+      </c>
+      <c r="P6" s="23">
+        <v>24.706562000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="21"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="17">
+        <v>67.298000000000002</v>
+      </c>
+      <c r="D7" s="22">
+        <v>63.481999999999999</v>
+      </c>
+      <c r="E7" s="23">
+        <v>71.441999999999993</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="24">
+        <v>60.463901</v>
+      </c>
+      <c r="J7" s="17">
+        <v>38.414358</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1.1217410000000001</v>
+      </c>
+      <c r="L7" s="22">
+        <v>55.352004000000001</v>
+      </c>
+      <c r="M7" s="23">
+        <v>5.1118969999999999</v>
+      </c>
+      <c r="N7" s="17">
+        <v>77.045084000000003</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0.71494999999999997</v>
+      </c>
+      <c r="P7" s="23">
+        <v>22.239985999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="21"/>
+      <c r="C8" s="17">
+        <v>78.977000000000004</v>
+      </c>
+      <c r="D8" s="22">
+        <v>78.213999999999999</v>
+      </c>
+      <c r="E8" s="23">
+        <v>79.834000000000003</v>
+      </c>
+      <c r="F8" s="17">
+        <v>95.673000000000002</v>
+      </c>
+      <c r="G8" s="22">
+        <v>98.391999999999996</v>
+      </c>
+      <c r="H8" s="23">
+        <v>92.656999999999996</v>
+      </c>
+      <c r="I8" s="24">
+        <v>82.858970999999997</v>
+      </c>
+      <c r="J8" s="17">
+        <v>14.848509999999999</v>
+      </c>
+      <c r="K8" s="22">
+        <v>2.2925260000000001</v>
+      </c>
+      <c r="L8" s="22">
+        <v>64.721356</v>
+      </c>
+      <c r="M8" s="23">
+        <v>18.137615</v>
+      </c>
+      <c r="N8" s="17">
+        <v>83.817205999999999</v>
+      </c>
+      <c r="O8" s="22">
+        <v>4.8708340000000003</v>
+      </c>
+      <c r="P8" s="23">
+        <v>11.311959999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="21"/>
+      <c r="C9" s="25">
+        <v>59.223999999999997</v>
+      </c>
+      <c r="D9" s="22">
+        <v>55.408000000000001</v>
+      </c>
+      <c r="E9" s="23">
+        <v>63.311999999999998</v>
+      </c>
+      <c r="F9" s="25">
+        <v>55.758000000000003</v>
+      </c>
+      <c r="G9" s="22">
+        <v>58.317999999999998</v>
+      </c>
+      <c r="H9" s="23">
+        <v>53.183</v>
+      </c>
+      <c r="I9" s="24">
+        <v>32.010280000000002</v>
+      </c>
+      <c r="J9" s="25">
+        <v>61.000478000000001</v>
+      </c>
+      <c r="K9" s="22">
+        <v>6.9890090000000002</v>
+      </c>
+      <c r="L9" s="22">
+        <v>28.019324000000001</v>
+      </c>
+      <c r="M9" s="23">
+        <v>3.9909560000000002</v>
+      </c>
+      <c r="N9" s="25">
+        <v>63.097186999999998</v>
+      </c>
+      <c r="O9" s="22">
+        <v>14.568687000000001</v>
+      </c>
+      <c r="P9" s="23">
+        <v>22.334244999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="21"/>
+      <c r="C10" s="25">
+        <v>58.527999999999999</v>
+      </c>
+      <c r="D10" s="22">
+        <v>52.929000000000002</v>
+      </c>
+      <c r="E10" s="23">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="F10" s="25">
+        <v>34.012999999999998</v>
+      </c>
+      <c r="G10" s="22">
+        <v>33.655999999999999</v>
+      </c>
+      <c r="H10" s="23">
+        <v>34.296999999999997</v>
+      </c>
+      <c r="I10" s="24">
+        <v>11.260826</v>
+      </c>
+      <c r="J10" s="25">
+        <v>83.060790999999995</v>
+      </c>
+      <c r="K10" s="22">
+        <v>5.6783830000000002</v>
+      </c>
+      <c r="L10" s="22">
+        <v>10.603062</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0.65776400000000002</v>
+      </c>
+      <c r="N10" s="25">
+        <v>52.463974</v>
+      </c>
+      <c r="O10" s="22">
+        <v>23.018073000000001</v>
+      </c>
+      <c r="P10" s="23">
+        <v>24.517952999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="19"/>
+      <c r="C11" s="17">
+        <v>59.418999999999997</v>
+      </c>
+      <c r="D11" s="18">
+        <v>53.930999999999997</v>
+      </c>
+      <c r="E11" s="19">
+        <v>65.100999999999999</v>
+      </c>
+      <c r="F11" s="17">
+        <v>83.831999999999994</v>
+      </c>
+      <c r="G11" s="18">
+        <v>88.113</v>
+      </c>
+      <c r="H11" s="19">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="I11" s="20">
+        <v>70.880194000000003</v>
+      </c>
+      <c r="J11" s="17">
+        <v>26.100679</v>
+      </c>
+      <c r="K11" s="18">
+        <v>3.0191270000000001</v>
+      </c>
+      <c r="L11" s="18">
+        <v>67.707722000000004</v>
+      </c>
+      <c r="M11" s="19">
+        <v>3.172472</v>
+      </c>
+      <c r="N11" s="17">
+        <v>73.845529999999997</v>
+      </c>
+      <c r="O11" s="18">
+        <v>4.104914</v>
+      </c>
+      <c r="P11" s="19">
+        <v>22.049555999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
+      <c r="C12" s="27">
+        <v>65.001000000000005</v>
+      </c>
+      <c r="D12" s="28">
+        <v>59.677</v>
+      </c>
+      <c r="E12" s="29">
+        <v>71.323999999999998</v>
+      </c>
+      <c r="F12" s="27">
+        <v>88.073999999999998</v>
+      </c>
+      <c r="G12" s="28">
+        <v>90.933000000000007</v>
+      </c>
+      <c r="H12" s="29">
+        <v>85.328000000000003</v>
+      </c>
+      <c r="I12" s="30">
+        <v>68.692886000000001</v>
+      </c>
+      <c r="J12" s="27">
+        <v>28.460032999999999</v>
+      </c>
+      <c r="K12" s="28">
+        <v>2.847099</v>
+      </c>
+      <c r="L12" s="28">
+        <v>68.262839</v>
+      </c>
+      <c r="M12" s="29">
+        <v>0.43004700000000001</v>
+      </c>
+      <c r="N12" s="27">
+        <v>72.886600000000001</v>
+      </c>
+      <c r="O12" s="28">
+        <v>7.0474680000000003</v>
+      </c>
+      <c r="P12" s="29">
+        <v>20.065932</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="36"/>
+      <c r="C13" s="33">
+        <v>66.679973000000004</v>
+      </c>
+      <c r="D13" s="34">
+        <v>62.823833999999998</v>
+      </c>
+      <c r="E13" s="35">
+        <v>70.921212999999995</v>
+      </c>
+      <c r="F13" s="33">
+        <v>73.314110999999997</v>
+      </c>
+      <c r="G13" s="34">
+        <v>75.054221999999996</v>
+      </c>
+      <c r="H13" s="35">
+        <v>71.569556000000006</v>
+      </c>
+      <c r="I13" s="36">
+        <v>52.632209000000003</v>
+      </c>
+      <c r="J13" s="33">
+        <v>43.591715999999998</v>
+      </c>
+      <c r="K13" s="34">
+        <v>3.7760769999999999</v>
+      </c>
+      <c r="L13" s="34">
+        <v>46.855466999999997</v>
+      </c>
+      <c r="M13" s="35">
+        <v>5.7767419999999996</v>
+      </c>
+      <c r="N13" s="33">
+        <v>67.041246000000001</v>
+      </c>
+      <c r="O13" s="34">
+        <v>13.47404</v>
+      </c>
+      <c r="P13" s="35">
+        <v>19.484717</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="21"/>
+      <c r="C14" s="25">
+        <v>78.911000000000001</v>
+      </c>
+      <c r="D14" s="22">
+        <v>80.138000000000005</v>
+      </c>
+      <c r="E14" s="23">
+        <v>77.643000000000001</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="24">
+        <v>83.658023</v>
+      </c>
+      <c r="J14" s="25">
+        <v>15.147046</v>
+      </c>
+      <c r="K14" s="22">
+        <v>1.1949129999999999</v>
+      </c>
+      <c r="L14" s="22">
+        <v>47.445554000000001</v>
+      </c>
+      <c r="M14" s="23">
+        <v>36.212468999999999</v>
+      </c>
+      <c r="N14" s="25">
+        <v>90.844999000000001</v>
+      </c>
+      <c r="O14" s="22">
+        <v>0.91505899999999996</v>
+      </c>
+      <c r="P14" s="23">
+        <v>8.2399419999999992</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="21"/>
+      <c r="C15" s="25">
+        <v>65.625</v>
+      </c>
+      <c r="D15" s="22">
+        <v>57.148000000000003</v>
+      </c>
+      <c r="E15" s="23">
+        <v>74.287000000000006</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="24">
+        <v>68.221951000000004</v>
+      </c>
+      <c r="J15" s="25">
+        <v>30.133434999999999</v>
+      </c>
+      <c r="K15" s="22">
+        <v>1.644614</v>
+      </c>
+      <c r="L15" s="22">
+        <v>62.917054</v>
+      </c>
+      <c r="M15" s="23">
+        <v>5.3048970000000004</v>
+      </c>
+      <c r="N15" s="25">
+        <v>79.966119000000006</v>
+      </c>
+      <c r="O15" s="22">
+        <v>2.4969600000000001</v>
+      </c>
+      <c r="P15" s="23">
+        <v>17.536922000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="21"/>
+      <c r="C16" s="25">
+        <v>73.591999999999999</v>
+      </c>
+      <c r="D16" s="22">
+        <v>65.844999999999999</v>
+      </c>
+      <c r="E16" s="23">
+        <v>82.885999999999996</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="24">
+        <v>93.328390999999996</v>
+      </c>
+      <c r="J16" s="25">
+        <v>5.4537459999999998</v>
+      </c>
+      <c r="K16" s="22">
+        <v>1.2178629999999999</v>
+      </c>
+      <c r="L16" s="22">
+        <v>53.414929999999998</v>
+      </c>
+      <c r="M16" s="23">
+        <v>39.913462000000003</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="41"/>
+      <c r="C17" s="38">
+        <v>60.462000000000003</v>
+      </c>
+      <c r="D17" s="39">
+        <v>48.701999999999998</v>
+      </c>
+      <c r="E17" s="40">
+        <v>72.361999999999995</v>
+      </c>
+      <c r="F17" s="38">
+        <v>96.923000000000002</v>
+      </c>
+      <c r="G17" s="39">
+        <v>98.994</v>
+      </c>
+      <c r="H17" s="40">
+        <v>95.231999999999999</v>
+      </c>
+      <c r="I17" s="41">
+        <v>89.944411000000002</v>
+      </c>
+      <c r="J17" s="38">
+        <v>8.8427620000000005</v>
+      </c>
+      <c r="K17" s="39">
+        <v>1.212844</v>
+      </c>
+      <c r="L17" s="39">
+        <v>72.236813999999995</v>
+      </c>
+      <c r="M17" s="40">
+        <v>17.707597</v>
+      </c>
+      <c r="N17" s="38">
+        <v>70.996655000000004</v>
+      </c>
+      <c r="O17" s="39">
+        <v>0.86951100000000003</v>
+      </c>
+      <c r="P17" s="40">
+        <v>28.133834</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="41"/>
+      <c r="C18" s="38">
+        <v>68.007000000000005</v>
+      </c>
+      <c r="D18" s="39">
+        <v>66.340999999999994</v>
+      </c>
+      <c r="E18" s="40">
+        <v>69.694000000000003</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="41">
+        <v>74.740556999999995</v>
+      </c>
+      <c r="J18" s="38">
+        <v>24.153471</v>
+      </c>
+      <c r="K18" s="39">
+        <v>1.105972</v>
+      </c>
+      <c r="L18" s="39">
+        <v>71.608598999999998</v>
+      </c>
+      <c r="M18" s="40">
+        <v>3.1319590000000002</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="19"/>
+      <c r="C19" s="17">
+        <v>65.394999999999996</v>
+      </c>
+      <c r="D19" s="18">
+        <v>62.308999999999997</v>
+      </c>
+      <c r="E19" s="19">
+        <v>68.582999999999998</v>
+      </c>
+      <c r="F19" s="17">
+        <v>96.759</v>
+      </c>
+      <c r="G19" s="18">
+        <v>97.822999999999993</v>
+      </c>
+      <c r="H19" s="19">
+        <v>95.742000000000004</v>
+      </c>
+      <c r="I19" s="20">
+        <v>82.678854999999999</v>
+      </c>
+      <c r="J19" s="17">
+        <v>13.662803</v>
+      </c>
+      <c r="K19" s="18">
+        <v>3.6583429999999999</v>
+      </c>
+      <c r="L19" s="18">
+        <v>61.716574999999999</v>
+      </c>
+      <c r="M19" s="19">
+        <v>20.96228</v>
+      </c>
+      <c r="N19" s="17">
+        <v>73.752094</v>
+      </c>
+      <c r="O19" s="18">
+        <v>1.1850860000000001</v>
+      </c>
+      <c r="P19" s="19">
+        <v>25.062819999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="41"/>
+      <c r="C20" s="38">
+        <v>60.521999999999998</v>
+      </c>
+      <c r="D20" s="39">
+        <v>52.997</v>
+      </c>
+      <c r="E20" s="40">
+        <v>66.885999999999996</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="41">
+        <v>78.297520000000006</v>
+      </c>
+      <c r="J20" s="38">
+        <v>12.936233</v>
+      </c>
+      <c r="K20" s="39">
+        <v>8.7662469999999999</v>
+      </c>
+      <c r="L20" s="39">
+        <v>72.482412999999994</v>
+      </c>
+      <c r="M20" s="40">
+        <v>5.8151070000000002</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="40" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="41"/>
+      <c r="C21" s="38">
+        <v>51.296999999999997</v>
+      </c>
+      <c r="D21" s="39">
+        <v>41.863</v>
+      </c>
+      <c r="E21" s="40">
+        <v>60.325000000000003</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="41">
+        <v>31.104568</v>
+      </c>
+      <c r="J21" s="38">
+        <v>66.224924000000001</v>
+      </c>
+      <c r="K21" s="39">
+        <v>2.6705070000000002</v>
+      </c>
+      <c r="L21" s="39">
+        <v>30.255831000000001</v>
+      </c>
+      <c r="M21" s="40">
+        <v>0.84873799999999999</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="40" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="46"/>
+      <c r="C22" s="43">
+        <v>23.59</v>
+      </c>
+      <c r="D22" s="44">
+        <v>23.113</v>
+      </c>
+      <c r="E22" s="45">
+        <v>24.08</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="46">
+        <v>34.377518000000002</v>
+      </c>
+      <c r="J22" s="43">
+        <v>56.718372000000002</v>
+      </c>
+      <c r="K22" s="44">
+        <v>8.9074670000000005</v>
+      </c>
+      <c r="L22" s="44">
+        <v>31.140881</v>
+      </c>
+      <c r="M22" s="45">
+        <v>3.236637</v>
+      </c>
+      <c r="N22" s="43">
+        <v>21.744261000000002</v>
+      </c>
+      <c r="O22" s="44">
+        <v>2.1660509999999999</v>
+      </c>
+      <c r="P22" s="45">
+        <v>76.089686999999998</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="36"/>
+      <c r="C23" s="33">
+        <v>65.950164999999998</v>
+      </c>
+      <c r="D23" s="34">
+        <v>61.248873000000003</v>
+      </c>
+      <c r="E23" s="35">
+        <v>70.821993000000006</v>
+      </c>
+      <c r="F23" s="33">
+        <v>96.840999999999994</v>
+      </c>
+      <c r="G23" s="34">
+        <v>98.408500000000004</v>
+      </c>
+      <c r="H23" s="35">
+        <v>95.486999999999995</v>
+      </c>
+      <c r="I23" s="36">
+        <v>80.528311000000002</v>
+      </c>
+      <c r="J23" s="33">
+        <v>16.714424999999999</v>
+      </c>
+      <c r="K23" s="34">
+        <v>2.7572649999999999</v>
+      </c>
+      <c r="L23" s="34">
+        <v>61.439202000000002</v>
+      </c>
+      <c r="M23" s="35">
+        <v>19.089109000000001</v>
+      </c>
+      <c r="N23" s="33">
+        <v>75.990499</v>
+      </c>
+      <c r="O23" s="34">
+        <v>1.389062</v>
+      </c>
+      <c r="P23" s="35">
+        <v>22.620439000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="51"/>
+      <c r="C24" s="48">
+        <v>50.433</v>
+      </c>
+      <c r="D24" s="49">
+        <v>41.143000000000001</v>
+      </c>
+      <c r="E24" s="50">
+        <v>59.71</v>
+      </c>
+      <c r="F24" s="48">
+        <v>88.808999999999997</v>
+      </c>
+      <c r="G24" s="49">
+        <v>91.602999999999994</v>
+      </c>
+      <c r="H24" s="50">
+        <v>86.662000000000006</v>
+      </c>
+      <c r="I24" s="51">
+        <v>56.635683</v>
+      </c>
+      <c r="J24" s="48">
+        <v>42.585628</v>
+      </c>
+      <c r="K24" s="49">
+        <v>0.77868899999999996</v>
+      </c>
+      <c r="L24" s="49">
+        <v>53.170971000000002</v>
+      </c>
+      <c r="M24" s="50">
+        <v>3.464712</v>
+      </c>
+      <c r="N24" s="48">
+        <v>72.506187999999995</v>
+      </c>
+      <c r="O24" s="49">
+        <v>3.2267320000000002</v>
+      </c>
+      <c r="P24" s="50">
+        <v>24.266687999999998</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="21"/>
+      <c r="C25" s="25">
+        <v>32.066000000000003</v>
+      </c>
+      <c r="D25" s="22">
+        <v>18.669</v>
+      </c>
+      <c r="E25" s="23">
+        <v>45.923999999999999</v>
+      </c>
+      <c r="F25" s="25">
+        <v>50.517000000000003</v>
+      </c>
+      <c r="G25" s="22">
+        <v>64.882000000000005</v>
+      </c>
+      <c r="H25" s="23">
+        <v>45.722000000000001</v>
+      </c>
+      <c r="I25" s="24">
+        <v>30.523562999999999</v>
+      </c>
+      <c r="J25" s="25">
+        <v>48.982761000000004</v>
+      </c>
+      <c r="K25" s="22">
+        <v>20.493676000000001</v>
+      </c>
+      <c r="L25" s="22">
+        <v>29.407589000000002</v>
+      </c>
+      <c r="M25" s="23">
+        <v>1.115974</v>
+      </c>
+      <c r="N25" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="21"/>
+      <c r="C26" s="25">
+        <v>78.183999999999997</v>
+      </c>
+      <c r="D26" s="22">
+        <v>72.385000000000005</v>
+      </c>
+      <c r="E26" s="23">
+        <v>84.311999999999998</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="24">
+        <v>74.143617000000006</v>
+      </c>
+      <c r="J26" s="25">
+        <v>23.530078</v>
+      </c>
+      <c r="K26" s="22">
+        <v>2.3263699999999998</v>
+      </c>
+      <c r="L26" s="22">
+        <v>56.498792000000002</v>
+      </c>
+      <c r="M26" s="23">
+        <v>17.644825000000001</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="21"/>
+      <c r="C27" s="25">
+        <v>67.775999999999996</v>
+      </c>
+      <c r="D27" s="22">
+        <v>57.378</v>
+      </c>
+      <c r="E27" s="23">
+        <v>78.358000000000004</v>
+      </c>
+      <c r="F27" s="25">
+        <v>85.212000000000003</v>
+      </c>
+      <c r="G27" s="22">
+        <v>87.445999999999998</v>
+      </c>
+      <c r="H27" s="23">
+        <v>83.581999999999994</v>
+      </c>
+      <c r="I27" s="24">
+        <v>85.111934000000005</v>
+      </c>
+      <c r="J27" s="25">
+        <v>14.749784999999999</v>
+      </c>
+      <c r="K27" s="22">
+        <v>0.13827800000000001</v>
+      </c>
+      <c r="L27" s="22">
+        <v>54.999420999999998</v>
+      </c>
+      <c r="M27" s="23">
+        <v>30.112513</v>
+      </c>
+      <c r="N27" s="25">
+        <v>76.988331000000002</v>
+      </c>
+      <c r="O27" s="22">
+        <v>2.7213069999999999</v>
+      </c>
+      <c r="P27" s="23">
+        <v>20.290365999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="21"/>
+      <c r="C28" s="25">
+        <v>66.977000000000004</v>
+      </c>
+      <c r="D28" s="22">
+        <v>62.433999999999997</v>
+      </c>
+      <c r="E28" s="23">
+        <v>71.638000000000005</v>
+      </c>
+      <c r="F28" s="25">
+        <v>86.489000000000004</v>
+      </c>
+      <c r="G28" s="22">
+        <v>90.186999999999998</v>
+      </c>
+      <c r="H28" s="23">
+        <v>83.125</v>
+      </c>
+      <c r="I28" s="24">
+        <v>64.594813000000002</v>
+      </c>
+      <c r="J28" s="25">
+        <v>34.442723999999998</v>
+      </c>
+      <c r="K28" s="22">
+        <v>0.96246799999999999</v>
+      </c>
+      <c r="L28" s="22">
+        <v>37.285850000000003</v>
+      </c>
+      <c r="M28" s="23">
+        <v>27.308962999999999</v>
+      </c>
+      <c r="N28" s="25">
+        <v>74.555159000000003</v>
+      </c>
+      <c r="O28" s="22">
+        <v>3.1073710000000001</v>
+      </c>
+      <c r="P28" s="23">
+        <v>22.33747</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="21"/>
+      <c r="C29" s="25">
+        <v>85.07</v>
+      </c>
+      <c r="D29" s="22">
+        <v>82.561000000000007</v>
+      </c>
+      <c r="E29" s="23">
+        <v>87.596000000000004</v>
+      </c>
+      <c r="F29" s="25">
+        <v>96.082999999999998</v>
+      </c>
+      <c r="G29" s="22">
+        <v>96.545000000000002</v>
+      </c>
+      <c r="H29" s="23">
+        <v>95.668000000000006</v>
+      </c>
+      <c r="I29" s="24">
+        <v>84.796555999999995</v>
+      </c>
+      <c r="J29" s="25">
+        <v>10.972676</v>
+      </c>
+      <c r="K29" s="22">
+        <v>4.2307680000000003</v>
+      </c>
+      <c r="L29" s="22">
+        <v>47.896526000000001</v>
+      </c>
+      <c r="M29" s="23">
+        <v>36.900030000000001</v>
+      </c>
+      <c r="N29" s="25">
+        <v>93.784981000000002</v>
+      </c>
+      <c r="O29" s="22">
+        <v>1.3187660000000001</v>
+      </c>
+      <c r="P29" s="23">
+        <v>4.8962529999999997</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="21"/>
+      <c r="C30" s="25">
+        <v>55.652999999999999</v>
+      </c>
+      <c r="D30" s="22">
+        <v>42.725000000000001</v>
+      </c>
+      <c r="E30" s="23">
+        <v>68.527000000000001</v>
+      </c>
+      <c r="F30" s="25">
+        <v>33.908000000000001</v>
+      </c>
+      <c r="G30" s="22">
+        <v>28.01</v>
+      </c>
+      <c r="H30" s="23">
+        <v>37.984000000000002</v>
+      </c>
+      <c r="I30" s="24">
+        <v>15.827942999999999</v>
+      </c>
+      <c r="J30" s="25">
+        <v>81.490234999999998</v>
+      </c>
+      <c r="K30" s="22">
+        <v>2.6819989999999998</v>
+      </c>
+      <c r="L30" s="22">
+        <v>14.244513</v>
+      </c>
+      <c r="M30" s="23">
+        <v>1.5834299999999999</v>
+      </c>
+      <c r="N30" s="25">
+        <v>78.492912000000004</v>
+      </c>
+      <c r="O30" s="22">
+        <v>3.8925040000000002</v>
+      </c>
+      <c r="P30" s="23">
+        <v>17.614584000000001</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="21"/>
+      <c r="C31" s="25">
+        <v>63.664000000000001</v>
+      </c>
+      <c r="D31" s="22">
+        <v>58.043999999999997</v>
+      </c>
+      <c r="E31" s="23">
+        <v>69.790999999999997</v>
+      </c>
+      <c r="F31" s="25">
+        <v>86.777000000000001</v>
+      </c>
+      <c r="G31" s="22">
+        <v>88.988</v>
+      </c>
+      <c r="H31" s="23">
+        <v>84.786000000000001</v>
+      </c>
+      <c r="I31" s="24">
+        <v>37.981458000000003</v>
+      </c>
+      <c r="J31" s="25">
+        <v>61.014518000000002</v>
+      </c>
+      <c r="K31" s="22">
+        <v>1.004024</v>
+      </c>
+      <c r="L31" s="22">
+        <v>35.675291000000001</v>
+      </c>
+      <c r="M31" s="23">
+        <v>2.3061669999999999</v>
+      </c>
+      <c r="N31" s="25">
+        <v>71.370444000000006</v>
+      </c>
+      <c r="O31" s="22">
+        <v>9.1925779999999992</v>
+      </c>
+      <c r="P31" s="23">
+        <v>19.436976999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="21"/>
+      <c r="C32" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="25">
+        <v>16.552</v>
+      </c>
+      <c r="G32" s="22">
+        <v>8.4130000000000003</v>
+      </c>
+      <c r="H32" s="23">
+        <v>24.727</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="25">
+        <v>82.307194999999993</v>
+      </c>
+      <c r="O32" s="22">
+        <v>1.970739</v>
+      </c>
+      <c r="P32" s="23">
+        <v>15.722066</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="21"/>
+      <c r="C33" s="25">
+        <v>33.9</v>
+      </c>
+      <c r="D33" s="22">
+        <v>20.942</v>
+      </c>
+      <c r="E33" s="23">
+        <v>47.094000000000001</v>
+      </c>
+      <c r="F33" s="25">
+        <v>82.486999999999995</v>
+      </c>
+      <c r="G33" s="22">
+        <v>85.533000000000001</v>
+      </c>
+      <c r="H33" s="23">
+        <v>81.116</v>
+      </c>
+      <c r="I33" s="24">
+        <v>45.139645999999999</v>
+      </c>
+      <c r="J33" s="25">
+        <v>48.657150999999999</v>
+      </c>
+      <c r="K33" s="22">
+        <v>6.2032410000000002</v>
+      </c>
+      <c r="L33" s="22">
+        <v>35.087378000000001</v>
+      </c>
+      <c r="M33" s="23">
+        <v>10.052268</v>
+      </c>
+      <c r="N33" s="25">
+        <v>40.415112999999998</v>
+      </c>
+      <c r="O33" s="22">
+        <v>7.8964999999999996</v>
+      </c>
+      <c r="P33" s="23">
+        <v>51.688386999999999</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
+      <c r="C34" s="38">
+        <v>73.712000000000003</v>
+      </c>
+      <c r="D34" s="39">
+        <v>71.340999999999994</v>
+      </c>
+      <c r="E34" s="40">
+        <v>76.253</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="41">
+        <v>72.312067999999996</v>
+      </c>
+      <c r="J34" s="38">
+        <v>26.943407000000001</v>
+      </c>
+      <c r="K34" s="39">
+        <v>0.74452499999999999</v>
+      </c>
+      <c r="L34" s="39">
+        <v>50.494439</v>
+      </c>
+      <c r="M34" s="40">
+        <v>21.817629</v>
+      </c>
+      <c r="N34" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" s="40" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="21"/>
+      <c r="C35" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="25">
+        <v>94.405000000000001</v>
+      </c>
+      <c r="G35" s="22">
+        <v>92.259</v>
+      </c>
+      <c r="H35" s="23">
+        <v>94.872</v>
+      </c>
+      <c r="I35" s="24">
+        <v>39.665306999999999</v>
+      </c>
+      <c r="J35" s="25">
+        <v>53.478949999999998</v>
+      </c>
+      <c r="K35" s="22">
+        <v>6.855753</v>
+      </c>
+      <c r="L35" s="22">
+        <v>29.178129999999999</v>
+      </c>
+      <c r="M35" s="23">
+        <v>10.487177000000001</v>
+      </c>
+      <c r="N35" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="21"/>
+      <c r="C36" s="25">
+        <v>83.74</v>
+      </c>
+      <c r="D36" s="22">
+        <v>80.2</v>
+      </c>
+      <c r="E36" s="23">
+        <v>87.444000000000003</v>
+      </c>
+      <c r="F36" s="25">
+        <v>93.581999999999994</v>
+      </c>
+      <c r="G36" s="22">
+        <v>96.082999999999998</v>
+      </c>
+      <c r="H36" s="23">
+        <v>91.105000000000004</v>
+      </c>
+      <c r="I36" s="24">
+        <v>83.912363999999997</v>
+      </c>
+      <c r="J36" s="25">
+        <v>14.429486000000001</v>
+      </c>
+      <c r="K36" s="22">
+        <v>1.65815</v>
+      </c>
+      <c r="L36" s="22">
+        <v>54.618577000000002</v>
+      </c>
+      <c r="M36" s="23">
+        <v>29.293786999999998</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="30"/>
+      <c r="C37" s="27">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="D37" s="28">
+        <v>76.447999999999993</v>
+      </c>
+      <c r="E37" s="29">
+        <v>85.38</v>
+      </c>
+      <c r="F37" s="27">
+        <v>95.206000000000003</v>
+      </c>
+      <c r="G37" s="28">
+        <v>97.397000000000006</v>
+      </c>
+      <c r="H37" s="29">
+        <v>93.14</v>
+      </c>
+      <c r="I37" s="30">
+        <v>74.888412000000002</v>
+      </c>
+      <c r="J37" s="27">
+        <v>18.648091999999998</v>
+      </c>
+      <c r="K37" s="28">
+        <v>6.4634960000000001</v>
+      </c>
+      <c r="L37" s="28">
+        <v>68.109386000000001</v>
+      </c>
+      <c r="M37" s="29">
+        <v>6.779026</v>
+      </c>
+      <c r="N37" s="27">
+        <v>85.066775000000007</v>
+      </c>
+      <c r="O37" s="28">
+        <v>2.5778720000000002</v>
+      </c>
+      <c r="P37" s="29">
+        <v>12.355352</v>
+      </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="36"/>
+      <c r="C38" s="33">
+        <v>72.147385999999997</v>
+      </c>
+      <c r="D38" s="34">
+        <v>65.740081000000004</v>
+      </c>
+      <c r="E38" s="35">
+        <v>78.851680000000002</v>
+      </c>
+      <c r="F38" s="33">
+        <v>75.835583</v>
+      </c>
+      <c r="G38" s="34">
+        <v>77.278833000000006</v>
+      </c>
+      <c r="H38" s="35">
+        <v>75.207417000000007</v>
+      </c>
+      <c r="I38" s="36">
+        <v>75.253890999999996</v>
+      </c>
+      <c r="J38" s="33">
+        <v>22.398275999999999</v>
+      </c>
+      <c r="K38" s="34">
+        <v>2.347836</v>
+      </c>
+      <c r="L38" s="34">
+        <v>50.860686999999999</v>
+      </c>
+      <c r="M38" s="35">
+        <v>24.393204000000001</v>
+      </c>
+      <c r="N38" s="33">
+        <v>78.112369999999999</v>
+      </c>
+      <c r="O38" s="34">
+        <v>3.1828219999999998</v>
+      </c>
+      <c r="P38" s="35">
+        <v>18.704808</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="56"/>
+      <c r="C39" s="53">
+        <v>41.143999999999998</v>
+      </c>
+      <c r="D39" s="54">
+        <v>14.132</v>
+      </c>
+      <c r="E39" s="55">
+        <v>67.096000000000004</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="56">
+        <v>27.414873</v>
+      </c>
+      <c r="J39" s="53">
+        <v>67.949704999999994</v>
+      </c>
+      <c r="K39" s="54">
+        <v>4.6354300000000004</v>
+      </c>
+      <c r="L39" s="54">
+        <v>25.687180999999999</v>
+      </c>
+      <c r="M39" s="55">
+        <v>1.727692</v>
+      </c>
+      <c r="N39" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" s="55" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="21"/>
+      <c r="C40" s="25">
+        <v>42.820999999999998</v>
+      </c>
+      <c r="D40" s="22">
+        <v>15.3</v>
+      </c>
+      <c r="E40" s="23">
+        <v>70.174000000000007</v>
+      </c>
+      <c r="F40" s="25">
+        <v>71.33</v>
+      </c>
+      <c r="G40" s="22">
+        <v>62.482999999999997</v>
+      </c>
+      <c r="H40" s="23">
+        <v>73.287000000000006</v>
+      </c>
+      <c r="I40" s="24">
+        <v>23.064875000000001</v>
+      </c>
+      <c r="J40" s="25">
+        <v>73.837406000000001</v>
+      </c>
+      <c r="K40" s="22">
+        <v>3.0977190000000001</v>
+      </c>
+      <c r="L40" s="22">
+        <v>18.613994000000002</v>
+      </c>
+      <c r="M40" s="23">
+        <v>4.4508809999999999</v>
+      </c>
+      <c r="N40" s="25">
+        <v>55.988106999999999</v>
+      </c>
+      <c r="O40" s="22">
+        <v>3.337307</v>
+      </c>
+      <c r="P40" s="23">
+        <v>40.674585999999998</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
+      <c r="C41" s="38">
+        <v>48.545999999999999</v>
+      </c>
+      <c r="D41" s="39">
+        <v>33.149000000000001</v>
+      </c>
+      <c r="E41" s="40">
+        <v>63.542999999999999</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="41">
+        <v>12.759928</v>
+      </c>
+      <c r="J41" s="38">
+        <v>84.958253999999997</v>
+      </c>
+      <c r="K41" s="39">
+        <v>2.281819</v>
+      </c>
+      <c r="L41" s="39">
+        <v>12.223214</v>
+      </c>
+      <c r="M41" s="40">
+        <v>0.536713</v>
+      </c>
+      <c r="N41" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" s="40" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
+      <c r="C42" s="38">
+        <v>40.966999999999999</v>
+      </c>
+      <c r="D42" s="39">
+        <v>26.187999999999999</v>
+      </c>
+      <c r="E42" s="40">
+        <v>57.097999999999999</v>
+      </c>
+      <c r="F42" s="38">
+        <v>89.355000000000004</v>
+      </c>
+      <c r="G42" s="39">
+        <v>91.701999999999998</v>
+      </c>
+      <c r="H42" s="40">
+        <v>88.158000000000001</v>
+      </c>
+      <c r="I42" s="41">
+        <v>53.502935000000001</v>
+      </c>
+      <c r="J42" s="38">
+        <v>42.064554000000001</v>
+      </c>
+      <c r="K42" s="39">
+        <v>4.4326090000000002</v>
+      </c>
+      <c r="L42" s="39">
+        <v>46.912636999999997</v>
+      </c>
+      <c r="M42" s="40">
+        <v>6.5902979999999998</v>
+      </c>
+      <c r="N42" s="38">
+        <v>53.534854000000003</v>
+      </c>
+      <c r="O42" s="39">
+        <v>4.9302039999999998</v>
+      </c>
+      <c r="P42" s="40">
+        <v>41.534942999999998</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="21"/>
+      <c r="C43" s="25">
+        <v>44.274999999999999</v>
+      </c>
+      <c r="D43" s="22">
+        <v>19.709</v>
+      </c>
+      <c r="E43" s="23">
+        <v>68.686999999999998</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="24">
+        <v>35.906835000000001</v>
+      </c>
+      <c r="J43" s="25">
+        <v>59.800561999999999</v>
+      </c>
+      <c r="K43" s="22">
+        <v>4.2925940000000002</v>
+      </c>
+      <c r="L43" s="22">
+        <v>31.091305999999999</v>
+      </c>
+      <c r="M43" s="23">
+        <v>4.8155299999999999</v>
+      </c>
+      <c r="N43" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O43" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="46"/>
+      <c r="C44" s="43">
+        <v>45.780999999999999</v>
+      </c>
+      <c r="D44" s="44">
+        <v>26.780999999999999</v>
+      </c>
+      <c r="E44" s="45">
+        <v>65.716999999999999</v>
+      </c>
+      <c r="F44" s="43">
+        <v>36.911000000000001</v>
+      </c>
+      <c r="G44" s="44">
+        <v>30.323</v>
+      </c>
+      <c r="H44" s="45">
+        <v>39.295999999999999</v>
+      </c>
+      <c r="I44" s="46">
+        <v>18.869363</v>
+      </c>
+      <c r="J44" s="43">
+        <v>74.382448999999994</v>
+      </c>
+      <c r="K44" s="44">
+        <v>6.7481600000000004</v>
+      </c>
+      <c r="L44" s="44">
+        <v>16.452017999999999</v>
+      </c>
+      <c r="M44" s="45">
+        <v>2.4173450000000001</v>
+      </c>
+      <c r="N44" s="43">
+        <v>54.878701999999997</v>
+      </c>
+      <c r="O44" s="44">
+        <v>9.1829370000000008</v>
+      </c>
+      <c r="P44" s="45">
+        <v>35.938361</v>
+      </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33" t="s">
+      <c r="A45" s="31"/>
+      <c r="B45" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="36"/>
+      <c r="C45" s="33">
+        <v>43.052197999999997</v>
+      </c>
+      <c r="D45" s="34">
+        <v>17.384736</v>
+      </c>
+      <c r="E45" s="35">
+        <v>68.598056999999997</v>
+      </c>
+      <c r="F45" s="33">
+        <v>65.865333000000007</v>
+      </c>
+      <c r="G45" s="34">
+        <v>61.502667000000002</v>
+      </c>
+      <c r="H45" s="35">
+        <v>66.913667000000004</v>
+      </c>
+      <c r="I45" s="36">
+        <v>26.213832</v>
+      </c>
+      <c r="J45" s="33">
+        <v>69.952198999999993</v>
+      </c>
+      <c r="K45" s="34">
+        <v>3.8339690000000002</v>
+      </c>
+      <c r="L45" s="34">
+        <v>22.442360999999998</v>
+      </c>
+      <c r="M45" s="35">
+        <v>3.771471</v>
+      </c>
+      <c r="N45" s="33">
+        <v>55.803451000000003</v>
+      </c>
+      <c r="O45" s="34">
+        <v>4.0099369999999999</v>
+      </c>
+      <c r="P45" s="35">
+        <v>40.186611999999997</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="51"/>
+      <c r="C46" s="48">
+        <v>75.590999999999994</v>
+      </c>
+      <c r="D46" s="49">
+        <v>74.183000000000007</v>
+      </c>
+      <c r="E46" s="50">
+        <v>77.013999999999996</v>
+      </c>
+      <c r="F46" s="48">
+        <v>96.346999999999994</v>
+      </c>
+      <c r="G46" s="49">
+        <v>98.156000000000006</v>
+      </c>
+      <c r="H46" s="50">
+        <v>94.378</v>
+      </c>
+      <c r="I46" s="51">
+        <v>86.899332999999999</v>
+      </c>
+      <c r="J46" s="48">
+        <v>11.806309000000001</v>
+      </c>
+      <c r="K46" s="49">
+        <v>1.2943750000000001</v>
+      </c>
+      <c r="L46" s="49">
+        <v>65.954808999999997</v>
+      </c>
+      <c r="M46" s="50">
+        <v>20.944524000000001</v>
+      </c>
+      <c r="N46" s="48">
+        <v>89.662475000000001</v>
+      </c>
+      <c r="O46" s="49">
+        <v>1.3401510000000001</v>
+      </c>
+      <c r="P46" s="50">
+        <v>8.9973740000000006</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="21"/>
+      <c r="C47" s="25">
+        <v>47.405000000000001</v>
+      </c>
+      <c r="D47" s="22">
+        <v>41.293999999999997</v>
+      </c>
+      <c r="E47" s="23">
+        <v>53.741</v>
+      </c>
+      <c r="F47" s="25">
+        <v>95.155000000000001</v>
+      </c>
+      <c r="G47" s="22">
+        <v>97.52</v>
+      </c>
+      <c r="H47" s="23">
+        <v>92.927000000000007</v>
+      </c>
+      <c r="I47" s="24">
+        <v>71.277730000000005</v>
+      </c>
+      <c r="J47" s="25">
+        <v>24.724450000000001</v>
+      </c>
+      <c r="K47" s="22">
+        <v>3.9978020000000001</v>
+      </c>
+      <c r="L47" s="22">
+        <v>55.845498999999997</v>
+      </c>
+      <c r="M47" s="23">
+        <v>15.432232000000001</v>
+      </c>
+      <c r="N47" s="25">
+        <v>59.209516999999998</v>
+      </c>
+      <c r="O47" s="22">
+        <v>3.0579519999999998</v>
+      </c>
+      <c r="P47" s="23">
+        <v>37.732531000000002</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="41"/>
+      <c r="C48" s="38">
+        <v>57.514000000000003</v>
+      </c>
+      <c r="D48" s="39">
+        <v>50.418999999999997</v>
+      </c>
+      <c r="E48" s="40">
+        <v>64.421000000000006</v>
+      </c>
+      <c r="F48" s="38">
+        <v>63.819000000000003</v>
+      </c>
+      <c r="G48" s="39">
+        <v>63.898000000000003</v>
+      </c>
+      <c r="H48" s="40">
+        <v>63.744</v>
+      </c>
+      <c r="I48" s="41">
+        <v>34.635675999999997</v>
+      </c>
+      <c r="J48" s="38">
+        <v>61.055762000000001</v>
+      </c>
+      <c r="K48" s="39">
+        <v>4.3090830000000002</v>
+      </c>
+      <c r="L48" s="39">
+        <v>25.950847</v>
+      </c>
+      <c r="M48" s="40">
+        <v>8.6848290000000006</v>
+      </c>
+      <c r="N48" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O48" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" s="40" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="21"/>
+      <c r="C49" s="25">
+        <v>66.748999999999995</v>
+      </c>
+      <c r="D49" s="22">
+        <v>58.863999999999997</v>
+      </c>
+      <c r="E49" s="23">
+        <v>74.281999999999996</v>
+      </c>
+      <c r="F49" s="25">
+        <v>92.125</v>
+      </c>
+      <c r="G49" s="22">
+        <v>95.447999999999993</v>
+      </c>
+      <c r="H49" s="23">
+        <v>89.236999999999995</v>
+      </c>
+      <c r="I49" s="24">
+        <v>73.306894</v>
+      </c>
+      <c r="J49" s="25">
+        <v>25.174054000000002</v>
+      </c>
+      <c r="K49" s="22">
+        <v>1.5190520000000001</v>
+      </c>
+      <c r="L49" s="22">
+        <v>54.956235</v>
+      </c>
+      <c r="M49" s="23">
+        <v>18.350659</v>
+      </c>
+      <c r="N49" s="25">
+        <v>82.039815000000004</v>
+      </c>
+      <c r="O49" s="22">
+        <v>1.834465</v>
+      </c>
+      <c r="P49" s="23">
+        <v>16.125710000000002</v>
+      </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="21"/>
+      <c r="C50" s="25">
+        <v>47.548999999999999</v>
+      </c>
+      <c r="D50" s="22">
+        <v>45.241999999999997</v>
+      </c>
+      <c r="E50" s="23">
+        <v>49.921999999999997</v>
+      </c>
+      <c r="F50" s="25">
+        <v>84.132999999999996</v>
+      </c>
+      <c r="G50" s="22">
+        <v>89.453000000000003</v>
+      </c>
+      <c r="H50" s="23">
+        <v>78.447999999999993</v>
+      </c>
+      <c r="I50" s="24">
+        <v>65.784265000000005</v>
+      </c>
+      <c r="J50" s="25">
+        <v>29.870231</v>
+      </c>
+      <c r="K50" s="22">
+        <v>4.3456479999999997</v>
+      </c>
+      <c r="L50" s="22">
+        <v>58.998120999999998</v>
+      </c>
+      <c r="M50" s="23">
+        <v>6.7861440000000002</v>
+      </c>
+      <c r="N50" s="25">
+        <v>57.414946999999998</v>
+      </c>
+      <c r="O50" s="22">
+        <v>3.455238</v>
+      </c>
+      <c r="P50" s="23">
+        <v>39.129815000000001</v>
+      </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
@@ -2738,1266 +4070,2607 @@
       <c r="B51" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="19"/>
+      <c r="C51" s="17">
+        <v>63.414999999999999</v>
+      </c>
+      <c r="D51" s="18">
+        <v>61.814999999999998</v>
+      </c>
+      <c r="E51" s="19">
+        <v>65.043000000000006</v>
+      </c>
+      <c r="F51" s="17">
+        <v>78.051000000000002</v>
+      </c>
+      <c r="G51" s="18">
+        <v>78.790000000000006</v>
+      </c>
+      <c r="H51" s="19">
+        <v>77.206000000000003</v>
+      </c>
+      <c r="I51" s="20">
+        <v>68.217009000000004</v>
+      </c>
+      <c r="J51" s="17">
+        <v>28.457453999999998</v>
+      </c>
+      <c r="K51" s="18">
+        <v>3.325529</v>
+      </c>
+      <c r="L51" s="18">
+        <v>60.733365999999997</v>
+      </c>
+      <c r="M51" s="19">
+        <v>7.4836419999999997</v>
+      </c>
+      <c r="N51" s="17">
+        <v>79.080737999999997</v>
+      </c>
+      <c r="O51" s="18">
+        <v>2.1892580000000001</v>
+      </c>
+      <c r="P51" s="19">
+        <v>18.730004000000001</v>
+      </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="21"/>
+      <c r="C52" s="25">
+        <v>52.296999999999997</v>
+      </c>
+      <c r="D52" s="22">
+        <v>42.094000000000001</v>
+      </c>
+      <c r="E52" s="23">
+        <v>63.11</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="24">
+        <v>79.387353000000004</v>
+      </c>
+      <c r="J52" s="25">
+        <v>17.920518999999999</v>
+      </c>
+      <c r="K52" s="22">
+        <v>2.6921520000000001</v>
+      </c>
+      <c r="L52" s="22">
+        <v>64.019842999999995</v>
+      </c>
+      <c r="M52" s="23">
+        <v>15.367511</v>
+      </c>
+      <c r="N52" s="25">
+        <v>63.313571000000003</v>
+      </c>
+      <c r="O52" s="22">
+        <v>3.5134940000000001</v>
+      </c>
+      <c r="P52" s="23">
+        <v>33.172905999999998</v>
+      </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="21"/>
+      <c r="C53" s="25">
+        <v>62.784999999999997</v>
+      </c>
+      <c r="D53" s="22">
+        <v>56.484999999999999</v>
+      </c>
+      <c r="E53" s="23">
+        <v>69.444999999999993</v>
+      </c>
+      <c r="F53" s="25">
+        <v>94.774000000000001</v>
+      </c>
+      <c r="G53" s="22">
+        <v>97.391000000000005</v>
+      </c>
+      <c r="H53" s="23">
+        <v>92.188000000000002</v>
+      </c>
+      <c r="I53" s="24">
+        <v>77.918532999999996</v>
+      </c>
+      <c r="J53" s="25">
+        <v>21.566621999999999</v>
+      </c>
+      <c r="K53" s="22">
+        <v>0.51471699999999998</v>
+      </c>
+      <c r="L53" s="22">
+        <v>57.746032</v>
+      </c>
+      <c r="M53" s="23">
+        <v>20.172501</v>
+      </c>
+      <c r="N53" s="25">
+        <v>75.065189000000004</v>
+      </c>
+      <c r="O53" s="22">
+        <v>2.3788930000000001</v>
+      </c>
+      <c r="P53" s="23">
+        <v>22.555917999999998</v>
+      </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="21"/>
+      <c r="C54" s="25">
+        <v>76.834000000000003</v>
+      </c>
+      <c r="D54" s="22">
+        <v>72.09</v>
+      </c>
+      <c r="E54" s="23">
+        <v>81.686999999999998</v>
+      </c>
+      <c r="F54" s="25">
+        <v>89.662000000000006</v>
+      </c>
+      <c r="G54" s="22">
+        <v>93.686000000000007</v>
+      </c>
+      <c r="H54" s="23">
+        <v>85.706000000000003</v>
+      </c>
+      <c r="I54" s="24">
+        <v>77.661173000000005</v>
+      </c>
+      <c r="J54" s="25">
+        <v>20.913450000000001</v>
+      </c>
+      <c r="K54" s="22">
+        <v>1.4253769999999999</v>
+      </c>
+      <c r="L54" s="22">
+        <v>70.467729000000006</v>
+      </c>
+      <c r="M54" s="23">
+        <v>7.1934440000000004</v>
+      </c>
+      <c r="N54" s="25">
+        <v>85.890266999999994</v>
+      </c>
+      <c r="O54" s="22">
+        <v>3.2009349999999999</v>
+      </c>
+      <c r="P54" s="23">
+        <v>10.908798000000001</v>
+      </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="21"/>
+      <c r="C55" s="25">
+        <v>69.256</v>
+      </c>
+      <c r="D55" s="22">
+        <v>58.03</v>
+      </c>
+      <c r="E55" s="23">
+        <v>80.311000000000007</v>
+      </c>
+      <c r="F55" s="25">
+        <v>95.415999999999997</v>
+      </c>
+      <c r="G55" s="22">
+        <v>97.418000000000006</v>
+      </c>
+      <c r="H55" s="23">
+        <v>94.242999999999995</v>
+      </c>
+      <c r="I55" s="24">
+        <v>84.930454999999995</v>
+      </c>
+      <c r="J55" s="25">
+        <v>14.790120999999999</v>
+      </c>
+      <c r="K55" s="22">
+        <v>0.27941199999999999</v>
+      </c>
+      <c r="L55" s="22">
+        <v>61.230252</v>
+      </c>
+      <c r="M55" s="23">
+        <v>23.700202999999998</v>
+      </c>
+      <c r="N55" s="25">
+        <v>68.045424999999994</v>
+      </c>
+      <c r="O55" s="22">
+        <v>1.686634</v>
+      </c>
+      <c r="P55" s="23">
+        <v>30.267924000000001</v>
+      </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="21"/>
+      <c r="C56" s="25">
+        <v>72.762</v>
+      </c>
+      <c r="D56" s="22">
+        <v>60.408000000000001</v>
+      </c>
+      <c r="E56" s="23">
+        <v>84.762</v>
+      </c>
+      <c r="F56" s="25">
+        <v>98.49</v>
+      </c>
+      <c r="G56" s="22">
+        <v>99.012</v>
+      </c>
+      <c r="H56" s="23">
+        <v>97.947000000000003</v>
+      </c>
+      <c r="I56" s="24">
+        <v>84.728662</v>
+      </c>
+      <c r="J56" s="25">
+        <v>9.5661559999999994</v>
+      </c>
+      <c r="K56" s="22">
+        <v>5.7051819999999998</v>
+      </c>
+      <c r="L56" s="22">
+        <v>54.070515999999998</v>
+      </c>
+      <c r="M56" s="23">
+        <v>30.658145999999999</v>
+      </c>
+      <c r="N56" s="25">
+        <v>85.054568000000003</v>
+      </c>
+      <c r="O56" s="22">
+        <v>0.40379599999999999</v>
+      </c>
+      <c r="P56" s="23">
+        <v>14.541636</v>
+      </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="21"/>
+      <c r="C57" s="25">
+        <v>82.64</v>
+      </c>
+      <c r="D57" s="22">
+        <v>80.768000000000001</v>
+      </c>
+      <c r="E57" s="23">
+        <v>84.478999999999999</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="24">
+        <v>66.312601999999998</v>
+      </c>
+      <c r="J57" s="25">
+        <v>15.052721999999999</v>
+      </c>
+      <c r="K57" s="22">
+        <v>18.634675999999999</v>
+      </c>
+      <c r="L57" s="22">
+        <v>56.048473999999999</v>
+      </c>
+      <c r="M57" s="23">
+        <v>10.264127999999999</v>
+      </c>
+      <c r="N57" s="25">
+        <v>89.224832000000006</v>
+      </c>
+      <c r="O57" s="22">
+        <v>3.2075520000000002</v>
+      </c>
+      <c r="P57" s="23">
+        <v>7.567615</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="21"/>
+      <c r="C58" s="25">
+        <v>50.29</v>
+      </c>
+      <c r="D58" s="22">
+        <v>37.103000000000002</v>
+      </c>
+      <c r="E58" s="23">
+        <v>63.37</v>
+      </c>
+      <c r="F58" s="25">
+        <v>95.1</v>
+      </c>
+      <c r="G58" s="22">
+        <v>96.98</v>
+      </c>
+      <c r="H58" s="23">
+        <v>93.703000000000003</v>
+      </c>
+      <c r="I58" s="24">
+        <v>68.265814000000006</v>
+      </c>
+      <c r="J58" s="25">
+        <v>30.403365000000001</v>
+      </c>
+      <c r="K58" s="22">
+        <v>1.330821</v>
+      </c>
+      <c r="L58" s="22">
+        <v>55.422252999999998</v>
+      </c>
+      <c r="M58" s="23">
+        <v>12.843560999999999</v>
+      </c>
+      <c r="N58" s="25">
+        <v>64.615262000000001</v>
+      </c>
+      <c r="O58" s="22">
+        <v>2.0548470000000001</v>
+      </c>
+      <c r="P58" s="23">
+        <v>33.329891000000003</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="21"/>
+      <c r="C59" s="25">
+        <v>53.786999999999999</v>
+      </c>
+      <c r="D59" s="22">
+        <v>51.548999999999999</v>
+      </c>
+      <c r="E59" s="23">
+        <v>56.064999999999998</v>
+      </c>
+      <c r="F59" s="25">
+        <v>93.11</v>
+      </c>
+      <c r="G59" s="22">
+        <v>96.629000000000005</v>
+      </c>
+      <c r="H59" s="23">
+        <v>89.275999999999996</v>
+      </c>
+      <c r="I59" s="24">
+        <v>86.884147999999996</v>
+      </c>
+      <c r="J59" s="25">
+        <v>10.522525999999999</v>
+      </c>
+      <c r="K59" s="22">
+        <v>2.5933649999999999</v>
+      </c>
+      <c r="L59" s="22">
+        <v>81.604645000000005</v>
+      </c>
+      <c r="M59" s="23">
+        <v>5.2795030000000001</v>
+      </c>
+      <c r="N59" s="25">
+        <v>66.439232000000004</v>
+      </c>
+      <c r="O59" s="22">
+        <v>2.2567010000000001</v>
+      </c>
+      <c r="P59" s="23">
+        <v>31.304029</v>
+      </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="30"/>
+      <c r="C60" s="27">
+        <v>58.158999999999999</v>
+      </c>
+      <c r="D60" s="28">
+        <v>56.119</v>
+      </c>
+      <c r="E60" s="29">
+        <v>60.182000000000002</v>
+      </c>
+      <c r="F60" s="27">
+        <v>92.343000000000004</v>
+      </c>
+      <c r="G60" s="28">
+        <v>93.866</v>
+      </c>
+      <c r="H60" s="29">
+        <v>90.635000000000005</v>
+      </c>
+      <c r="I60" s="30">
+        <v>80.690208999999996</v>
+      </c>
+      <c r="J60" s="27">
+        <v>17.724249</v>
+      </c>
+      <c r="K60" s="28">
+        <v>1.58551</v>
+      </c>
+      <c r="L60" s="28">
+        <v>64.863544000000005</v>
+      </c>
+      <c r="M60" s="29">
+        <v>15.826665</v>
+      </c>
+      <c r="N60" s="27">
+        <v>88.007980000000003</v>
+      </c>
+      <c r="O60" s="28">
+        <v>1.840603</v>
+      </c>
+      <c r="P60" s="29">
+        <v>10.151417</v>
+      </c>
     </row>
     <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33" t="s">
+      <c r="A61" s="31"/>
+      <c r="B61" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="36"/>
+      <c r="C61" s="33">
+        <v>72.802558000000005</v>
+      </c>
+      <c r="D61" s="34">
+        <v>68.315516000000002</v>
+      </c>
+      <c r="E61" s="35">
+        <v>77.228185999999994</v>
+      </c>
+      <c r="F61" s="33">
+        <v>89.886538000000002</v>
+      </c>
+      <c r="G61" s="34">
+        <v>92.172846000000007</v>
+      </c>
+      <c r="H61" s="35">
+        <v>87.664462</v>
+      </c>
+      <c r="I61" s="36">
+        <v>70.782393999999996</v>
+      </c>
+      <c r="J61" s="33">
+        <v>17.337316000000001</v>
+      </c>
+      <c r="K61" s="34">
+        <v>11.88029</v>
+      </c>
+      <c r="L61" s="34">
+        <v>57.681584999999998</v>
+      </c>
+      <c r="M61" s="35">
+        <v>13.100809</v>
+      </c>
+      <c r="N61" s="33">
+        <v>81.552915999999996</v>
+      </c>
+      <c r="O61" s="34">
+        <v>2.5609069999999998</v>
+      </c>
+      <c r="P61" s="35">
+        <v>15.886174</v>
+      </c>
     </row>
     <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="59"/>
-      <c r="B62" s="60" t="s">
+      <c r="A62" s="58"/>
+      <c r="B62" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="61"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="62"/>
-      <c r="P62" s="63"/>
+      <c r="C62" s="60">
+        <v>65.854078999999999</v>
+      </c>
+      <c r="D62" s="61">
+        <v>57.891074000000003</v>
+      </c>
+      <c r="E62" s="62">
+        <v>74.588556999999994</v>
+      </c>
+      <c r="F62" s="60">
+        <v>80.247614999999996</v>
+      </c>
+      <c r="G62" s="61">
+        <v>81.600154000000003</v>
+      </c>
+      <c r="H62" s="62">
+        <v>78.922256000000004</v>
+      </c>
+      <c r="I62" s="63">
+        <v>65.954605999999998</v>
+      </c>
+      <c r="J62" s="60">
+        <v>28.108398000000001</v>
+      </c>
+      <c r="K62" s="61">
+        <v>5.9369969999999999</v>
+      </c>
+      <c r="L62" s="61">
+        <v>50.658954999999999</v>
+      </c>
+      <c r="M62" s="62">
+        <v>15.295650999999999</v>
+      </c>
+      <c r="N62" s="60">
+        <v>73.777591999999999</v>
+      </c>
+      <c r="O62" s="61">
+        <v>4.8250130000000002</v>
+      </c>
+      <c r="P62" s="62">
+        <v>21.397393999999998</v>
+      </c>
     </row>
     <row r="63" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="59"/>
-      <c r="B63" s="60" t="s">
+      <c r="A63" s="58"/>
+      <c r="B63" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="63"/>
+      <c r="C63" s="60">
+        <v>60.508763000000002</v>
+      </c>
+      <c r="D63" s="61">
+        <v>47.996761999999997</v>
+      </c>
+      <c r="E63" s="62">
+        <v>73.191265999999999</v>
+      </c>
+      <c r="F63" s="60">
+        <v>37.673223</v>
+      </c>
+      <c r="G63" s="61">
+        <v>37.018999999999998</v>
+      </c>
+      <c r="H63" s="62">
+        <v>38.043106000000002</v>
+      </c>
+      <c r="I63" s="63">
+        <v>40.503301</v>
+      </c>
+      <c r="J63" s="60">
+        <v>56.084536999999997</v>
+      </c>
+      <c r="K63" s="61">
+        <v>3.4121619999999999</v>
+      </c>
+      <c r="L63" s="61">
+        <v>31.662224999999999</v>
+      </c>
+      <c r="M63" s="62">
+        <v>8.841075</v>
+      </c>
+      <c r="N63" s="60">
+        <v>74.570391000000001</v>
+      </c>
+      <c r="O63" s="61">
+        <v>2.817059</v>
+      </c>
+      <c r="P63" s="62">
+        <v>22.620412999999999</v>
+      </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
-      <c r="B64" s="66" t="s">
+      <c r="A64" s="64"/>
+      <c r="B64" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="69"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="68"/>
-      <c r="P64" s="69"/>
+      <c r="C64" s="66">
+        <v>62.814332</v>
+      </c>
+      <c r="D64" s="67">
+        <v>51.333575000000003</v>
+      </c>
+      <c r="E64" s="68">
+        <v>74.878276</v>
+      </c>
+      <c r="F64" s="66">
+        <v>53.26088</v>
+      </c>
+      <c r="G64" s="67">
+        <v>50.952199999999998</v>
+      </c>
+      <c r="H64" s="68">
+        <v>55.050919999999998</v>
+      </c>
+      <c r="I64" s="69">
+        <v>33.059672999999997</v>
+      </c>
+      <c r="J64" s="66">
+        <v>62.872615000000003</v>
+      </c>
+      <c r="K64" s="67">
+        <v>4.0677120000000002</v>
+      </c>
+      <c r="L64" s="67">
+        <v>29.080971999999999</v>
+      </c>
+      <c r="M64" s="68">
+        <v>3.978701</v>
+      </c>
+      <c r="N64" s="66">
+        <v>75.743351000000004</v>
+      </c>
+      <c r="O64" s="67">
+        <v>4.1551660000000004</v>
+      </c>
+      <c r="P64" s="68">
+        <v>20.101483000000002</v>
+      </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="65"/>
-      <c r="B65" s="71" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="75"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="73"/>
-      <c r="L65" s="73"/>
-      <c r="M65" s="74"/>
-      <c r="N65" s="72"/>
-      <c r="O65" s="73"/>
-      <c r="P65" s="74"/>
+      <c r="C65" s="71">
+        <v>59.981534000000003</v>
+      </c>
+      <c r="D65" s="72">
+        <v>45.215860999999997</v>
+      </c>
+      <c r="E65" s="73">
+        <v>74.716256000000001</v>
+      </c>
+      <c r="F65" s="71">
+        <v>71.847700000000003</v>
+      </c>
+      <c r="G65" s="72">
+        <v>71.108099999999993</v>
+      </c>
+      <c r="H65" s="73">
+        <v>71.768450000000001</v>
+      </c>
+      <c r="I65" s="74">
+        <v>53.394198000000003</v>
+      </c>
+      <c r="J65" s="71">
+        <v>43.213849000000003</v>
+      </c>
+      <c r="K65" s="72">
+        <v>3.391953</v>
+      </c>
+      <c r="L65" s="72">
+        <v>40.949483000000001</v>
+      </c>
+      <c r="M65" s="73">
+        <v>12.444715</v>
+      </c>
+      <c r="N65" s="71">
+        <v>70.215765000000005</v>
+      </c>
+      <c r="O65" s="72">
+        <v>1.998278</v>
+      </c>
+      <c r="P65" s="73">
+        <v>27.785868000000001</v>
+      </c>
     </row>
     <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
-      <c r="B66" s="76" t="s">
+      <c r="A66" s="64"/>
+      <c r="B66" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="78"/>
-      <c r="M66" s="79"/>
-      <c r="N66" s="77"/>
-      <c r="O66" s="78"/>
-      <c r="P66" s="79"/>
+      <c r="C66" s="76">
+        <v>61.269390999999999</v>
+      </c>
+      <c r="D66" s="77">
+        <v>49.393236999999999</v>
+      </c>
+      <c r="E66" s="78">
+        <v>73.390084999999999</v>
+      </c>
+      <c r="F66" s="76">
+        <v>50.157443999999998</v>
+      </c>
+      <c r="G66" s="77">
+        <v>50.091669000000003</v>
+      </c>
+      <c r="H66" s="78">
+        <v>50.030225999999999</v>
+      </c>
+      <c r="I66" s="79">
+        <v>44.400798999999999</v>
+      </c>
+      <c r="J66" s="76">
+        <v>51.800396999999997</v>
+      </c>
+      <c r="K66" s="77">
+        <v>3.7988040000000001</v>
+      </c>
+      <c r="L66" s="77">
+        <v>34.571299000000003</v>
+      </c>
+      <c r="M66" s="78">
+        <v>9.8294999999999995</v>
+      </c>
+      <c r="N66" s="76">
+        <v>74.448432999999994</v>
+      </c>
+      <c r="O66" s="77">
+        <v>3.1259480000000002</v>
+      </c>
+      <c r="P66" s="78">
+        <v>22.432272999999999</v>
+      </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
-      <c r="B67" s="71" t="s">
+      <c r="A67" s="64"/>
+      <c r="B67" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="73"/>
-      <c r="L67" s="73"/>
-      <c r="M67" s="74"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="73"/>
-      <c r="P67" s="74"/>
+      <c r="C67" s="71">
+        <v>62.321204999999999</v>
+      </c>
+      <c r="D67" s="72">
+        <v>52.652028000000001</v>
+      </c>
+      <c r="E67" s="73">
+        <v>73.196517</v>
+      </c>
+      <c r="F67" s="71">
+        <v>73.332234999999997</v>
+      </c>
+      <c r="G67" s="72">
+        <v>73.958471000000003</v>
+      </c>
+      <c r="H67" s="73">
+        <v>72.676058999999995</v>
+      </c>
+      <c r="I67" s="74">
+        <v>66.122135999999998</v>
+      </c>
+      <c r="J67" s="71">
+        <v>31.070173</v>
+      </c>
+      <c r="K67" s="72">
+        <v>2.807693</v>
+      </c>
+      <c r="L67" s="72">
+        <v>47.748159999999999</v>
+      </c>
+      <c r="M67" s="73">
+        <v>18.373975999999999</v>
+      </c>
+      <c r="N67" s="71">
+        <v>71.2042</v>
+      </c>
+      <c r="O67" s="72">
+        <v>3.149241</v>
+      </c>
+      <c r="P67" s="73">
+        <v>25.646560000000001</v>
+      </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
-      <c r="B68" s="71" t="s">
+      <c r="A68" s="64"/>
+      <c r="B68" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="72"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="73"/>
-      <c r="M68" s="74"/>
-      <c r="N68" s="72"/>
-      <c r="O68" s="73"/>
-      <c r="P68" s="74"/>
+      <c r="C68" s="71">
+        <v>63.032184000000001</v>
+      </c>
+      <c r="D68" s="72">
+        <v>52.876106</v>
+      </c>
+      <c r="E68" s="73">
+        <v>74.009666999999993</v>
+      </c>
+      <c r="F68" s="71">
+        <v>85.567420999999996</v>
+      </c>
+      <c r="G68" s="72">
+        <v>87.286421000000004</v>
+      </c>
+      <c r="H68" s="73">
+        <v>83.922788999999995</v>
+      </c>
+      <c r="I68" s="74">
+        <v>60.938721999999999</v>
+      </c>
+      <c r="J68" s="71">
+        <v>29.365438999999999</v>
+      </c>
+      <c r="K68" s="72">
+        <v>9.6958409999999997</v>
+      </c>
+      <c r="L68" s="72">
+        <v>49.340040000000002</v>
+      </c>
+      <c r="M68" s="73">
+        <v>11.598682</v>
+      </c>
+      <c r="N68" s="71">
+        <v>73.295608999999999</v>
+      </c>
+      <c r="O68" s="72">
+        <v>2.9990640000000002</v>
+      </c>
+      <c r="P68" s="73">
+        <v>23.705324000000001</v>
+      </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
-      <c r="B69" s="71" t="s">
+      <c r="A69" s="64"/>
+      <c r="B69" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="72"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="72"/>
-      <c r="K69" s="73"/>
-      <c r="L69" s="73"/>
-      <c r="M69" s="74"/>
-      <c r="N69" s="72"/>
-      <c r="O69" s="73"/>
-      <c r="P69" s="74"/>
+      <c r="C69" s="71">
+        <v>72.839551</v>
+      </c>
+      <c r="D69" s="72">
+        <v>69.281102000000004</v>
+      </c>
+      <c r="E69" s="73">
+        <v>76.555522999999994</v>
+      </c>
+      <c r="F69" s="71">
+        <v>91.762600000000006</v>
+      </c>
+      <c r="G69" s="72">
+        <v>94.095600000000005</v>
+      </c>
+      <c r="H69" s="73">
+        <v>89.579599999999999</v>
+      </c>
+      <c r="I69" s="74">
+        <v>76.553837999999999</v>
+      </c>
+      <c r="J69" s="71">
+        <v>20.590557</v>
+      </c>
+      <c r="K69" s="72">
+        <v>2.855604</v>
+      </c>
+      <c r="L69" s="72">
+        <v>54.756549</v>
+      </c>
+      <c r="M69" s="73">
+        <v>21.797288999999999</v>
+      </c>
+      <c r="N69" s="71">
+        <v>76.919528</v>
+      </c>
+      <c r="O69" s="72">
+        <v>2.5003790000000001</v>
+      </c>
+      <c r="P69" s="73">
+        <v>20.580093000000002</v>
+      </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
-      <c r="B70" s="71" t="s">
+      <c r="A70" s="64"/>
+      <c r="B70" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="73"/>
-      <c r="L70" s="73"/>
-      <c r="M70" s="74"/>
-      <c r="N70" s="72"/>
-      <c r="O70" s="73"/>
-      <c r="P70" s="74"/>
+      <c r="C70" s="71">
+        <v>67.217740000000006</v>
+      </c>
+      <c r="D70" s="72">
+        <v>62.778236</v>
+      </c>
+      <c r="E70" s="73">
+        <v>71.844327000000007</v>
+      </c>
+      <c r="F70" s="71">
+        <v>93.162000000000006</v>
+      </c>
+      <c r="G70" s="72">
+        <v>95.307749999999999</v>
+      </c>
+      <c r="H70" s="73">
+        <v>91.145499999999998</v>
+      </c>
+      <c r="I70" s="74">
+        <v>74.891827000000006</v>
+      </c>
+      <c r="J70" s="71">
+        <v>22.092196999999999</v>
+      </c>
+      <c r="K70" s="72">
+        <v>3.0159769999999999</v>
+      </c>
+      <c r="L70" s="72">
+        <v>59.153478999999997</v>
+      </c>
+      <c r="M70" s="73">
+        <v>15.738348</v>
+      </c>
+      <c r="N70" s="71">
+        <v>76.493748999999994</v>
+      </c>
+      <c r="O70" s="72">
+        <v>3.478405</v>
+      </c>
+      <c r="P70" s="73">
+        <v>20.027846</v>
+      </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="65"/>
-      <c r="B71" s="71" t="s">
+      <c r="A71" s="64"/>
+      <c r="B71" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="72"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="74"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="72"/>
-      <c r="K71" s="73"/>
-      <c r="L71" s="73"/>
-      <c r="M71" s="74"/>
-      <c r="N71" s="72"/>
-      <c r="O71" s="73"/>
-      <c r="P71" s="74"/>
+      <c r="C71" s="71">
+        <v>72.802558000000005</v>
+      </c>
+      <c r="D71" s="72">
+        <v>68.315516000000002</v>
+      </c>
+      <c r="E71" s="73">
+        <v>77.228185999999994</v>
+      </c>
+      <c r="F71" s="71">
+        <v>89.886538000000002</v>
+      </c>
+      <c r="G71" s="72">
+        <v>92.172846000000007</v>
+      </c>
+      <c r="H71" s="73">
+        <v>87.664462</v>
+      </c>
+      <c r="I71" s="74">
+        <v>70.782393999999996</v>
+      </c>
+      <c r="J71" s="71">
+        <v>17.337316000000001</v>
+      </c>
+      <c r="K71" s="72">
+        <v>11.88029</v>
+      </c>
+      <c r="L71" s="72">
+        <v>57.681584999999998</v>
+      </c>
+      <c r="M71" s="73">
+        <v>13.100809</v>
+      </c>
+      <c r="N71" s="71">
+        <v>81.552915999999996</v>
+      </c>
+      <c r="O71" s="72">
+        <v>2.5609069999999998</v>
+      </c>
+      <c r="P71" s="73">
+        <v>15.886174</v>
+      </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="65"/>
-      <c r="B72" s="71" t="s">
+      <c r="A72" s="64"/>
+      <c r="B72" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="72"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="75"/>
-      <c r="J72" s="72"/>
-      <c r="K72" s="73"/>
-      <c r="L72" s="73"/>
-      <c r="M72" s="74"/>
-      <c r="N72" s="72"/>
-      <c r="O72" s="73"/>
-      <c r="P72" s="74"/>
+      <c r="C72" s="71">
+        <v>68.214780000000005</v>
+      </c>
+      <c r="D72" s="72">
+        <v>60.551594999999999</v>
+      </c>
+      <c r="E72" s="73">
+        <v>76.186099999999996</v>
+      </c>
+      <c r="F72" s="71">
+        <v>82.385999999999996</v>
+      </c>
+      <c r="G72" s="72">
+        <v>86.284000000000006</v>
+      </c>
+      <c r="H72" s="73">
+        <v>80.259500000000003</v>
+      </c>
+      <c r="I72" s="74">
+        <v>73.381112999999999</v>
+      </c>
+      <c r="J72" s="71">
+        <v>24.285633000000001</v>
+      </c>
+      <c r="K72" s="72">
+        <v>2.3332549999999999</v>
+      </c>
+      <c r="L72" s="72">
+        <v>50.939374000000001</v>
+      </c>
+      <c r="M72" s="73">
+        <v>22.441738999999998</v>
+      </c>
+      <c r="N72" s="71">
+        <v>76.825796999999994</v>
+      </c>
+      <c r="O72" s="72">
+        <v>2.9576159999999998</v>
+      </c>
+      <c r="P72" s="73">
+        <v>20.216588999999999</v>
+      </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
-      <c r="B73" s="71" t="s">
+      <c r="A73" s="64"/>
+      <c r="B73" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="73"/>
-      <c r="L73" s="73"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="73"/>
-      <c r="P73" s="74"/>
+      <c r="C73" s="71">
+        <v>70.777356999999995</v>
+      </c>
+      <c r="D73" s="72">
+        <v>67.176772</v>
+      </c>
+      <c r="E73" s="73">
+        <v>74.622299999999996</v>
+      </c>
+      <c r="F73" s="71">
+        <v>72.367999999999995</v>
+      </c>
+      <c r="G73" s="72">
+        <v>72.930999999999997</v>
+      </c>
+      <c r="H73" s="73">
+        <v>71.734267000000003</v>
+      </c>
+      <c r="I73" s="74">
+        <v>69.299238000000003</v>
+      </c>
+      <c r="J73" s="71">
+        <v>27.349824999999999</v>
+      </c>
+      <c r="K73" s="72">
+        <v>3.3509380000000002</v>
+      </c>
+      <c r="L73" s="72">
+        <v>51.940393999999998</v>
+      </c>
+      <c r="M73" s="73">
+        <v>17.358844000000001</v>
+      </c>
+      <c r="N73" s="71">
+        <v>70.864771000000005</v>
+      </c>
+      <c r="O73" s="72">
+        <v>9.1715909999999994</v>
+      </c>
+      <c r="P73" s="73">
+        <v>19.963638</v>
+      </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="65"/>
-      <c r="B74" s="71" t="s">
+      <c r="A74" s="64"/>
+      <c r="B74" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="72"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="72"/>
-      <c r="K74" s="73"/>
-      <c r="L74" s="73"/>
-      <c r="M74" s="74"/>
-      <c r="N74" s="72"/>
-      <c r="O74" s="73"/>
-      <c r="P74" s="74"/>
+      <c r="C74" s="71">
+        <v>43.294910999999999</v>
+      </c>
+      <c r="D74" s="72">
+        <v>19.455292</v>
+      </c>
+      <c r="E74" s="73">
+        <v>66.935148999999996</v>
+      </c>
+      <c r="F74" s="71">
+        <v>63.133000000000003</v>
+      </c>
+      <c r="G74" s="72">
+        <v>61.012500000000003</v>
+      </c>
+      <c r="H74" s="73">
+        <v>63.726999999999997</v>
+      </c>
+      <c r="I74" s="74">
+        <v>29.466069000000001</v>
+      </c>
+      <c r="J74" s="71">
+        <v>65.939565000000002</v>
+      </c>
+      <c r="K74" s="72">
+        <v>4.5943670000000001</v>
+      </c>
+      <c r="L74" s="72">
+        <v>26.396291999999999</v>
+      </c>
+      <c r="M74" s="73">
+        <v>3.0697770000000002</v>
+      </c>
+      <c r="N74" s="71">
+        <v>54.613615000000003</v>
+      </c>
+      <c r="O74" s="72">
+        <v>8.3440429999999992</v>
+      </c>
+      <c r="P74" s="73">
+        <v>37.042341999999998</v>
+      </c>
     </row>
     <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="65"/>
-      <c r="B75" s="71" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="81"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="82"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="84"/>
-      <c r="J75" s="81"/>
-      <c r="K75" s="82"/>
-      <c r="L75" s="82"/>
-      <c r="M75" s="83"/>
-      <c r="N75" s="81"/>
-      <c r="O75" s="82"/>
-      <c r="P75" s="83"/>
+      <c r="C75" s="80">
+        <v>76.516165999999998</v>
+      </c>
+      <c r="D75" s="81">
+        <v>74.733080999999999</v>
+      </c>
+      <c r="E75" s="82">
+        <v>78.441344999999998</v>
+      </c>
+      <c r="F75" s="80">
+        <v>86.613749999999996</v>
+      </c>
+      <c r="G75" s="81">
+        <v>88.776750000000007</v>
+      </c>
+      <c r="H75" s="82">
+        <v>84.35275</v>
+      </c>
+      <c r="I75" s="83">
+        <v>71.872406999999995</v>
+      </c>
+      <c r="J75" s="80">
+        <v>24.635252999999999</v>
+      </c>
+      <c r="K75" s="81">
+        <v>3.4923470000000001</v>
+      </c>
+      <c r="L75" s="81">
+        <v>60.231015999999997</v>
+      </c>
+      <c r="M75" s="82">
+        <v>11.641391</v>
+      </c>
+      <c r="N75" s="80">
+        <v>81.963863000000003</v>
+      </c>
+      <c r="O75" s="81">
+        <v>7.4338139999999999</v>
+      </c>
+      <c r="P75" s="82">
+        <v>10.602323</v>
+      </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
-      <c r="B76" s="85" t="s">
+      <c r="A76" s="64"/>
+      <c r="B76" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="86"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="88"/>
-      <c r="F76" s="86"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="89"/>
-      <c r="J76" s="86"/>
-      <c r="K76" s="87"/>
-      <c r="L76" s="87"/>
-      <c r="M76" s="88"/>
-      <c r="N76" s="86"/>
-      <c r="O76" s="87"/>
-      <c r="P76" s="88"/>
+      <c r="C76" s="85">
+        <v>66.474433000000005</v>
+      </c>
+      <c r="D76" s="86">
+        <v>55.371822999999999</v>
+      </c>
+      <c r="E76" s="87">
+        <v>77.831822000000003</v>
+      </c>
+      <c r="F76" s="85">
+        <v>71.600429000000005</v>
+      </c>
+      <c r="G76" s="86">
+        <v>71.741714000000002</v>
+      </c>
+      <c r="H76" s="87">
+        <v>71.600999999999999</v>
+      </c>
+      <c r="I76" s="88">
+        <v>47.564239999999998</v>
+      </c>
+      <c r="J76" s="85">
+        <v>49.725701000000001</v>
+      </c>
+      <c r="K76" s="86">
+        <v>2.7100580000000001</v>
+      </c>
+      <c r="L76" s="86">
+        <v>34.956197000000003</v>
+      </c>
+      <c r="M76" s="87">
+        <v>12.608043</v>
+      </c>
+      <c r="N76" s="85">
+        <v>80.812786000000003</v>
+      </c>
+      <c r="O76" s="86">
+        <v>1.2872300000000001</v>
+      </c>
+      <c r="P76" s="87">
+        <v>17.899982999999999</v>
+      </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="65"/>
-      <c r="B77" s="71" t="s">
+      <c r="A77" s="64"/>
+      <c r="B77" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="72"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="75"/>
-      <c r="J77" s="72"/>
-      <c r="K77" s="73"/>
-      <c r="L77" s="73"/>
-      <c r="M77" s="74"/>
-      <c r="N77" s="72"/>
-      <c r="O77" s="73"/>
-      <c r="P77" s="74"/>
+      <c r="C77" s="71">
+        <v>63.592162000000002</v>
+      </c>
+      <c r="D77" s="72">
+        <v>53.450194000000003</v>
+      </c>
+      <c r="E77" s="73">
+        <v>74.164350999999996</v>
+      </c>
+      <c r="F77" s="71">
+        <v>55.203231000000002</v>
+      </c>
+      <c r="G77" s="72">
+        <v>53.706308</v>
+      </c>
+      <c r="H77" s="73">
+        <v>56.174923</v>
+      </c>
+      <c r="I77" s="74">
+        <v>33.870151</v>
+      </c>
+      <c r="J77" s="71">
+        <v>62.466289000000003</v>
+      </c>
+      <c r="K77" s="72">
+        <v>3.6635599999999999</v>
+      </c>
+      <c r="L77" s="72">
+        <v>30.265266</v>
+      </c>
+      <c r="M77" s="73">
+        <v>3.6048849999999999</v>
+      </c>
+      <c r="N77" s="71">
+        <v>76.269681000000006</v>
+      </c>
+      <c r="O77" s="72">
+        <v>4.9600289999999996</v>
+      </c>
+      <c r="P77" s="73">
+        <v>18.770288999999998</v>
+      </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
-      <c r="B78" s="71" t="s">
+      <c r="A78" s="64"/>
+      <c r="B78" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="72"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="72"/>
-      <c r="K78" s="73"/>
-      <c r="L78" s="73"/>
-      <c r="M78" s="74"/>
-      <c r="N78" s="72"/>
-      <c r="O78" s="73"/>
-      <c r="P78" s="74"/>
+      <c r="C78" s="71">
+        <v>57.729978000000003</v>
+      </c>
+      <c r="D78" s="72">
+        <v>51.984881000000001</v>
+      </c>
+      <c r="E78" s="73">
+        <v>63.842973999999998</v>
+      </c>
+      <c r="F78" s="71">
+        <v>2.5961850000000002</v>
+      </c>
+      <c r="G78" s="72">
+        <v>2.9752589999999999</v>
+      </c>
+      <c r="H78" s="73">
+        <v>2.2784439999999999</v>
+      </c>
+      <c r="I78" s="74">
+        <v>10.657386000000001</v>
+      </c>
+      <c r="J78" s="71">
+        <v>84.957239999999999</v>
+      </c>
+      <c r="K78" s="72">
+        <v>4.3853739999999997</v>
+      </c>
+      <c r="L78" s="72">
+        <v>9.7565449999999991</v>
+      </c>
+      <c r="M78" s="73">
+        <v>0.900841</v>
+      </c>
+      <c r="N78" s="71">
+        <v>82.171028000000007</v>
+      </c>
+      <c r="O78" s="72">
+        <v>4.7953060000000001</v>
+      </c>
+      <c r="P78" s="73">
+        <v>13.033664</v>
+      </c>
     </row>
     <row r="79" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="65"/>
-      <c r="B79" s="76" t="s">
+      <c r="A79" s="64"/>
+      <c r="B79" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="77"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="78"/>
-      <c r="H79" s="79"/>
-      <c r="I79" s="80"/>
-      <c r="J79" s="77"/>
-      <c r="K79" s="78"/>
-      <c r="L79" s="78"/>
-      <c r="M79" s="79"/>
-      <c r="N79" s="77"/>
-      <c r="O79" s="78"/>
-      <c r="P79" s="79"/>
+      <c r="C79" s="76">
+        <v>60.792907999999997</v>
+      </c>
+      <c r="D79" s="77">
+        <v>53.342376000000002</v>
+      </c>
+      <c r="E79" s="78">
+        <v>68.589034999999996</v>
+      </c>
+      <c r="F79" s="76">
+        <v>9.5150000000000006</v>
+      </c>
+      <c r="G79" s="77">
+        <v>10.153625</v>
+      </c>
+      <c r="H79" s="78">
+        <v>9.0720620000000007</v>
+      </c>
+      <c r="I79" s="79">
+        <v>12.398603</v>
+      </c>
+      <c r="J79" s="76">
+        <v>84.059957999999995</v>
+      </c>
+      <c r="K79" s="77">
+        <v>3.541439</v>
+      </c>
+      <c r="L79" s="77">
+        <v>10.953754999999999</v>
+      </c>
+      <c r="M79" s="78">
+        <v>1.444849</v>
+      </c>
+      <c r="N79" s="76">
+        <v>79.846682000000001</v>
+      </c>
+      <c r="O79" s="77">
+        <v>3.666274</v>
+      </c>
+      <c r="P79" s="78">
+        <v>16.487044000000001</v>
+      </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="65"/>
-      <c r="B80" s="85" t="s">
+      <c r="A80" s="64"/>
+      <c r="B80" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="86"/>
-      <c r="D80" s="87"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="86"/>
-      <c r="G80" s="87"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="89"/>
-      <c r="J80" s="86"/>
-      <c r="K80" s="87"/>
-      <c r="L80" s="87"/>
-      <c r="M80" s="88"/>
-      <c r="N80" s="86"/>
-      <c r="O80" s="87"/>
-      <c r="P80" s="88"/>
+      <c r="C80" s="85">
+        <v>56.544279000000003</v>
+      </c>
+      <c r="D80" s="86">
+        <v>43.765000000000001</v>
+      </c>
+      <c r="E80" s="87">
+        <v>70.492054999999993</v>
+      </c>
+      <c r="F80" s="85">
+        <v>85.5715</v>
+      </c>
+      <c r="G80" s="86">
+        <v>87.504999999999995</v>
+      </c>
+      <c r="H80" s="87">
+        <v>83.989000000000004</v>
+      </c>
+      <c r="I80" s="88">
+        <v>54.381055000000003</v>
+      </c>
+      <c r="J80" s="85">
+        <v>42.040014999999997</v>
+      </c>
+      <c r="K80" s="86">
+        <v>3.5789409999999999</v>
+      </c>
+      <c r="L80" s="86">
+        <v>47.300818999999997</v>
+      </c>
+      <c r="M80" s="87">
+        <v>7.0802360000000002</v>
+      </c>
+      <c r="N80" s="85">
+        <v>76.113410999999999</v>
+      </c>
+      <c r="O80" s="86">
+        <v>7.1943739999999998</v>
+      </c>
+      <c r="P80" s="87">
+        <v>16.692215000000001</v>
+      </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="65"/>
-      <c r="B81" s="71" t="s">
+      <c r="A81" s="64"/>
+      <c r="B81" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="C81" s="72"/>
-      <c r="D81" s="73"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="73"/>
-      <c r="H81" s="74"/>
-      <c r="I81" s="75"/>
-      <c r="J81" s="72"/>
-      <c r="K81" s="73"/>
-      <c r="L81" s="73"/>
-      <c r="M81" s="74"/>
-      <c r="N81" s="72"/>
-      <c r="O81" s="73"/>
-      <c r="P81" s="74"/>
+      <c r="C81" s="71">
+        <v>55.295174000000003</v>
+      </c>
+      <c r="D81" s="72">
+        <v>40.267516000000001</v>
+      </c>
+      <c r="E81" s="73">
+        <v>71.164636000000002</v>
+      </c>
+      <c r="F81" s="71">
+        <v>51.802750000000003</v>
+      </c>
+      <c r="G81" s="72">
+        <v>47.466000000000001</v>
+      </c>
+      <c r="H81" s="73">
+        <v>53.335000000000001</v>
+      </c>
+      <c r="I81" s="74">
+        <v>21.077781999999999</v>
+      </c>
+      <c r="J81" s="71">
+        <v>75.48218</v>
+      </c>
+      <c r="K81" s="72">
+        <v>3.440042</v>
+      </c>
+      <c r="L81" s="72">
+        <v>17.959610000000001</v>
+      </c>
+      <c r="M81" s="73">
+        <v>3.1181719999999999</v>
+      </c>
+      <c r="N81" s="71">
+        <v>72.547555000000003</v>
+      </c>
+      <c r="O81" s="72">
+        <v>3.1887310000000002</v>
+      </c>
+      <c r="P81" s="73">
+        <v>24.263714</v>
+      </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
-      <c r="B82" s="71" t="s">
+      <c r="A82" s="64"/>
+      <c r="B82" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="C82" s="72"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="74"/>
-      <c r="I82" s="75"/>
-      <c r="J82" s="72"/>
-      <c r="K82" s="73"/>
-      <c r="L82" s="73"/>
-      <c r="M82" s="74"/>
-      <c r="N82" s="72"/>
-      <c r="O82" s="73"/>
-      <c r="P82" s="74"/>
+      <c r="C82" s="71">
+        <v>66.800391000000005</v>
+      </c>
+      <c r="D82" s="72">
+        <v>59.271963999999997</v>
+      </c>
+      <c r="E82" s="73">
+        <v>75.010848999999993</v>
+      </c>
+      <c r="F82" s="71">
+        <v>79.639171000000005</v>
+      </c>
+      <c r="G82" s="72">
+        <v>80.925314</v>
+      </c>
+      <c r="H82" s="73">
+        <v>78.343199999999996</v>
+      </c>
+      <c r="I82" s="74">
+        <v>66.930187000000004</v>
+      </c>
+      <c r="J82" s="71">
+        <v>26.934045999999999</v>
+      </c>
+      <c r="K82" s="72">
+        <v>6.1357679999999997</v>
+      </c>
+      <c r="L82" s="72">
+        <v>50.942025999999998</v>
+      </c>
+      <c r="M82" s="73">
+        <v>15.988161</v>
+      </c>
+      <c r="N82" s="71">
+        <v>73.670330000000007</v>
+      </c>
+      <c r="O82" s="72">
+        <v>4.7162100000000002</v>
+      </c>
+      <c r="P82" s="73">
+        <v>21.61346</v>
+      </c>
     </row>
     <row r="83" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="65"/>
-      <c r="B83" s="76" t="s">
+      <c r="A83" s="64"/>
+      <c r="B83" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="C83" s="77"/>
-      <c r="D83" s="78"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="78"/>
-      <c r="H83" s="79"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="78"/>
-      <c r="L83" s="78"/>
-      <c r="M83" s="79"/>
-      <c r="N83" s="77"/>
-      <c r="O83" s="78"/>
-      <c r="P83" s="79"/>
+      <c r="C83" s="76">
+        <v>60.927970000000002</v>
+      </c>
+      <c r="D83" s="77">
+        <v>48.591424000000004</v>
+      </c>
+      <c r="E83" s="78">
+        <v>73.356437999999997</v>
+      </c>
+      <c r="F83" s="76">
+        <v>36.358848999999999</v>
+      </c>
+      <c r="G83" s="77">
+        <v>36.047186000000004</v>
+      </c>
+      <c r="H83" s="78">
+        <v>36.620604999999998</v>
+      </c>
+      <c r="I83" s="79">
+        <v>41.920293999999998</v>
+      </c>
+      <c r="J83" s="76">
+        <v>54.669576999999997</v>
+      </c>
+      <c r="K83" s="77">
+        <v>3.410129</v>
+      </c>
+      <c r="L83" s="77">
+        <v>32.661762000000003</v>
+      </c>
+      <c r="M83" s="78">
+        <v>9.2585320000000007</v>
+      </c>
+      <c r="N83" s="76">
+        <v>74.773950999999997</v>
+      </c>
+      <c r="O83" s="77">
+        <v>2.7796569999999998</v>
+      </c>
+      <c r="P83" s="78">
+        <v>22.455047</v>
+      </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="65"/>
-      <c r="B84" s="85" t="s">
+      <c r="A84" s="64"/>
+      <c r="B84" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="C84" s="86"/>
-      <c r="D84" s="87"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="86"/>
-      <c r="G84" s="87"/>
-      <c r="H84" s="88"/>
-      <c r="I84" s="89"/>
-      <c r="J84" s="86"/>
-      <c r="K84" s="87"/>
-      <c r="L84" s="87"/>
-      <c r="M84" s="88"/>
-      <c r="N84" s="86"/>
-      <c r="O84" s="87"/>
-      <c r="P84" s="88"/>
+      <c r="C84" s="85">
+        <v>68.684911</v>
+      </c>
+      <c r="D84" s="86">
+        <v>63.902206999999997</v>
+      </c>
+      <c r="E84" s="87">
+        <v>73.725093000000001</v>
+      </c>
+      <c r="F84" s="85">
+        <v>92.962249999999997</v>
+      </c>
+      <c r="G84" s="86">
+        <v>95.056624999999997</v>
+      </c>
+      <c r="H84" s="87">
+        <v>90.911438000000004</v>
+      </c>
+      <c r="I84" s="88">
+        <v>76.084115999999995</v>
+      </c>
+      <c r="J84" s="85">
+        <v>20.340751000000001</v>
+      </c>
+      <c r="K84" s="86">
+        <v>3.575135</v>
+      </c>
+      <c r="L84" s="86">
+        <v>57.264015999999998</v>
+      </c>
+      <c r="M84" s="87">
+        <v>18.8201</v>
+      </c>
+      <c r="N84" s="85">
+        <v>76.978274999999996</v>
+      </c>
+      <c r="O84" s="86">
+        <v>2.3176679999999998</v>
+      </c>
+      <c r="P84" s="87">
+        <v>20.704056000000001</v>
+      </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
-      <c r="B85" s="90" t="s">
+      <c r="A85" s="64"/>
+      <c r="B85" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="C85" s="72"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="74"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="72"/>
-      <c r="K85" s="73"/>
-      <c r="L85" s="73"/>
-      <c r="M85" s="74"/>
-      <c r="N85" s="72"/>
-      <c r="O85" s="73"/>
-      <c r="P85" s="74"/>
+      <c r="C85" s="71">
+        <v>48.927317000000002</v>
+      </c>
+      <c r="D85" s="72">
+        <v>29.510811</v>
+      </c>
+      <c r="E85" s="73">
+        <v>70.857164999999995</v>
+      </c>
+      <c r="F85" s="71">
+        <v>86.125</v>
+      </c>
+      <c r="G85" s="72">
+        <v>97.295000000000002</v>
+      </c>
+      <c r="H85" s="73">
+        <v>82.632999999999996</v>
+      </c>
+      <c r="I85" s="74">
+        <v>70.476412999999994</v>
+      </c>
+      <c r="J85" s="71">
+        <v>26.653863999999999</v>
+      </c>
+      <c r="K85" s="72">
+        <v>2.869729</v>
+      </c>
+      <c r="L85" s="72">
+        <v>47.122751999999998</v>
+      </c>
+      <c r="M85" s="73">
+        <v>23.353660999999999</v>
+      </c>
+      <c r="N85" s="71">
+        <v>55.92886</v>
+      </c>
+      <c r="O85" s="72">
+        <v>2.831051</v>
+      </c>
+      <c r="P85" s="73">
+        <v>41.240088999999998</v>
+      </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
-      <c r="B86" s="71" t="s">
+      <c r="A86" s="64"/>
+      <c r="B86" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="72"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="72"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="74"/>
-      <c r="I86" s="75"/>
-      <c r="J86" s="72"/>
-      <c r="K86" s="73"/>
-      <c r="L86" s="73"/>
-      <c r="M86" s="74"/>
-      <c r="N86" s="72"/>
-      <c r="O86" s="73"/>
-      <c r="P86" s="74"/>
+      <c r="C86" s="71">
+        <v>66.429706999999993</v>
+      </c>
+      <c r="D86" s="72">
+        <v>57.933154000000002</v>
+      </c>
+      <c r="E86" s="73">
+        <v>75.815262000000004</v>
+      </c>
+      <c r="F86" s="71">
+        <v>78.389411999999993</v>
+      </c>
+      <c r="G86" s="72">
+        <v>80.402587999999994</v>
+      </c>
+      <c r="H86" s="73">
+        <v>76.492118000000005</v>
+      </c>
+      <c r="I86" s="74">
+        <v>62.343243000000001</v>
+      </c>
+      <c r="J86" s="71">
+        <v>29.192771</v>
+      </c>
+      <c r="K86" s="72">
+        <v>8.4639880000000005</v>
+      </c>
+      <c r="L86" s="72">
+        <v>50.038260999999999</v>
+      </c>
+      <c r="M86" s="73">
+        <v>12.304982000000001</v>
+      </c>
+      <c r="N86" s="71">
+        <v>74.619310999999996</v>
+      </c>
+      <c r="O86" s="72">
+        <v>3.8159779999999999</v>
+      </c>
+      <c r="P86" s="73">
+        <v>21.564710000000002</v>
+      </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="65"/>
-      <c r="B87" s="71" t="s">
+      <c r="A87" s="64"/>
+      <c r="B87" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="C87" s="72"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="73"/>
-      <c r="H87" s="74"/>
-      <c r="I87" s="75"/>
-      <c r="J87" s="72"/>
-      <c r="K87" s="73"/>
-      <c r="L87" s="73"/>
-      <c r="M87" s="74"/>
-      <c r="N87" s="72"/>
-      <c r="O87" s="73"/>
-      <c r="P87" s="74"/>
+      <c r="C87" s="71">
+        <v>56.358617000000002</v>
+      </c>
+      <c r="D87" s="72">
+        <v>35.697558000000001</v>
+      </c>
+      <c r="E87" s="73">
+        <v>76.545745999999994</v>
+      </c>
+      <c r="F87" s="71">
+        <v>74.998943999999995</v>
+      </c>
+      <c r="G87" s="72">
+        <v>74.722611000000001</v>
+      </c>
+      <c r="H87" s="73">
+        <v>74.925111000000001</v>
+      </c>
+      <c r="I87" s="74">
+        <v>64.676243999999997</v>
+      </c>
+      <c r="J87" s="71">
+        <v>32.357078000000001</v>
+      </c>
+      <c r="K87" s="72">
+        <v>2.9666769999999998</v>
+      </c>
+      <c r="L87" s="72">
+        <v>49.987524000000001</v>
+      </c>
+      <c r="M87" s="73">
+        <v>14.68872</v>
+      </c>
+      <c r="N87" s="71">
+        <v>70.148780000000002</v>
+      </c>
+      <c r="O87" s="72">
+        <v>1.953489</v>
+      </c>
+      <c r="P87" s="73">
+        <v>27.89762</v>
+      </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="65"/>
-      <c r="B88" s="71" t="s">
+      <c r="A88" s="64"/>
+      <c r="B88" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="72"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="72"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="74"/>
-      <c r="I88" s="75"/>
-      <c r="J88" s="72"/>
-      <c r="K88" s="73"/>
-      <c r="L88" s="73"/>
-      <c r="M88" s="74"/>
-      <c r="N88" s="72"/>
-      <c r="O88" s="73"/>
-      <c r="P88" s="74"/>
+      <c r="C88" s="71">
+        <v>50.845745000000001</v>
+      </c>
+      <c r="D88" s="72">
+        <v>36.82246</v>
+      </c>
+      <c r="E88" s="73">
+        <v>65.732556000000002</v>
+      </c>
+      <c r="F88" s="71">
+        <v>51.969250000000002</v>
+      </c>
+      <c r="G88" s="72">
+        <v>49.699249999999999</v>
+      </c>
+      <c r="H88" s="73">
+        <v>53.677500000000002</v>
+      </c>
+      <c r="I88" s="74">
+        <v>19.061449</v>
+      </c>
+      <c r="J88" s="71">
+        <v>75.956000000000003</v>
+      </c>
+      <c r="K88" s="72">
+        <v>4.9825600000000003</v>
+      </c>
+      <c r="L88" s="72">
+        <v>17.835373000000001</v>
+      </c>
+      <c r="M88" s="73">
+        <v>1.2260759999999999</v>
+      </c>
+      <c r="N88" s="71">
+        <v>53.466611</v>
+      </c>
+      <c r="O88" s="72">
+        <v>22.478631</v>
+      </c>
+      <c r="P88" s="73">
+        <v>24.054758</v>
+      </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="65"/>
-      <c r="B89" s="71" t="s">
+      <c r="A89" s="64"/>
+      <c r="B89" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="C89" s="72"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="74"/>
-      <c r="I89" s="75"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="73"/>
-      <c r="L89" s="73"/>
-      <c r="M89" s="74"/>
-      <c r="N89" s="72"/>
-      <c r="O89" s="73"/>
-      <c r="P89" s="74"/>
+      <c r="C89" s="71">
+        <v>63.874201999999997</v>
+      </c>
+      <c r="D89" s="72">
+        <v>54.787883000000001</v>
+      </c>
+      <c r="E89" s="73">
+        <v>73.223758000000004</v>
+      </c>
+      <c r="F89" s="71">
+        <v>49.759580999999997</v>
+      </c>
+      <c r="G89" s="72">
+        <v>47.910806000000001</v>
+      </c>
+      <c r="H89" s="73">
+        <v>50.779257999999999</v>
+      </c>
+      <c r="I89" s="74">
+        <v>39.740149000000002</v>
+      </c>
+      <c r="J89" s="71">
+        <v>56.352857</v>
+      </c>
+      <c r="K89" s="72">
+        <v>3.9069940000000001</v>
+      </c>
+      <c r="L89" s="72">
+        <v>31.047792999999999</v>
+      </c>
+      <c r="M89" s="73">
+        <v>8.6923560000000002</v>
+      </c>
+      <c r="N89" s="71">
+        <v>72.821394999999995</v>
+      </c>
+      <c r="O89" s="72">
+        <v>3.574808</v>
+      </c>
+      <c r="P89" s="73">
+        <v>23.63327</v>
+      </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="65"/>
-      <c r="B90" s="76" t="s">
+      <c r="A90" s="64"/>
+      <c r="B90" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="77"/>
-      <c r="D90" s="78"/>
-      <c r="E90" s="79"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="78"/>
-      <c r="H90" s="79"/>
-      <c r="I90" s="80"/>
-      <c r="J90" s="77"/>
-      <c r="K90" s="78"/>
-      <c r="L90" s="78"/>
-      <c r="M90" s="79"/>
-      <c r="N90" s="77"/>
-      <c r="O90" s="78"/>
-      <c r="P90" s="79"/>
+      <c r="C90" s="76">
+        <v>61.354173000000003</v>
+      </c>
+      <c r="D90" s="77">
+        <v>54.603954999999999</v>
+      </c>
+      <c r="E90" s="78">
+        <v>68.330127000000005</v>
+      </c>
+      <c r="F90" s="76">
+        <v>11.837432</v>
+      </c>
+      <c r="G90" s="77">
+        <v>11.512226999999999</v>
+      </c>
+      <c r="H90" s="78">
+        <v>12.139818</v>
+      </c>
+      <c r="I90" s="79">
+        <v>8.4637840000000004</v>
+      </c>
+      <c r="J90" s="76">
+        <v>88.423277999999996</v>
+      </c>
+      <c r="K90" s="77">
+        <v>3.1129389999999999</v>
+      </c>
+      <c r="L90" s="77">
+        <v>7.7142580000000001</v>
+      </c>
+      <c r="M90" s="78">
+        <v>0.74952600000000003</v>
+      </c>
+      <c r="N90" s="76">
+        <v>83.115652999999995</v>
+      </c>
+      <c r="O90" s="77">
+        <v>3.3976799999999998</v>
+      </c>
+      <c r="P90" s="78">
+        <v>13.486667000000001</v>
+      </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="65"/>
-      <c r="B91" s="85" t="s">
+      <c r="A91" s="64"/>
+      <c r="B91" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="86"/>
-      <c r="D91" s="87"/>
-      <c r="E91" s="88"/>
-      <c r="F91" s="86"/>
-      <c r="G91" s="87"/>
-      <c r="H91" s="88"/>
-      <c r="I91" s="89"/>
-      <c r="J91" s="86"/>
-      <c r="K91" s="87"/>
-      <c r="L91" s="87"/>
-      <c r="M91" s="88"/>
-      <c r="N91" s="86"/>
-      <c r="O91" s="87"/>
-      <c r="P91" s="88"/>
+      <c r="C91" s="85">
+        <v>68.983063000000001</v>
+      </c>
+      <c r="D91" s="86">
+        <v>63.021132000000001</v>
+      </c>
+      <c r="E91" s="87">
+        <v>75.224592999999999</v>
+      </c>
+      <c r="F91" s="85">
+        <v>90.122808000000006</v>
+      </c>
+      <c r="G91" s="86">
+        <v>92.783000000000001</v>
+      </c>
+      <c r="H91" s="87">
+        <v>87.983192000000003</v>
+      </c>
+      <c r="I91" s="88">
+        <v>77.595091999999994</v>
+      </c>
+      <c r="J91" s="85">
+        <v>19.690308999999999</v>
+      </c>
+      <c r="K91" s="86">
+        <v>2.7145999999999999</v>
+      </c>
+      <c r="L91" s="86">
+        <v>56.888530000000003</v>
+      </c>
+      <c r="M91" s="87">
+        <v>20.706562000000002</v>
+      </c>
+      <c r="N91" s="85">
+        <v>76.468618000000006</v>
+      </c>
+      <c r="O91" s="86">
+        <v>2.9828960000000002</v>
+      </c>
+      <c r="P91" s="87">
+        <v>20.548483999999998</v>
+      </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="65"/>
-      <c r="B92" s="71" t="s">
+      <c r="A92" s="64"/>
+      <c r="B92" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="72"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="74"/>
-      <c r="I92" s="75"/>
-      <c r="J92" s="72"/>
-      <c r="K92" s="73"/>
-      <c r="L92" s="73"/>
-      <c r="M92" s="74"/>
-      <c r="N92" s="72"/>
-      <c r="O92" s="73"/>
-      <c r="P92" s="74"/>
+      <c r="C92" s="71">
+        <v>55.805399000000001</v>
+      </c>
+      <c r="D92" s="72">
+        <v>39.118744</v>
+      </c>
+      <c r="E92" s="73">
+        <v>74.216755000000006</v>
+      </c>
+      <c r="F92" s="71">
+        <v>75.016110999999995</v>
+      </c>
+      <c r="G92" s="72">
+        <v>78.519110999999995</v>
+      </c>
+      <c r="H92" s="73">
+        <v>73.340221999999997</v>
+      </c>
+      <c r="I92" s="74">
+        <v>56.885415999999999</v>
+      </c>
+      <c r="J92" s="71">
+        <v>39.437615000000001</v>
+      </c>
+      <c r="K92" s="72">
+        <v>3.676971</v>
+      </c>
+      <c r="L92" s="72">
+        <v>40.206913</v>
+      </c>
+      <c r="M92" s="73">
+        <v>16.678502999999999</v>
+      </c>
+      <c r="N92" s="71">
+        <v>70.018227999999993</v>
+      </c>
+      <c r="O92" s="72">
+        <v>1.441605</v>
+      </c>
+      <c r="P92" s="73">
+        <v>28.540165999999999</v>
+      </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="65"/>
-      <c r="B93" s="71" t="s">
+      <c r="A93" s="64"/>
+      <c r="B93" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="C93" s="72"/>
-      <c r="D93" s="73"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="73"/>
-      <c r="H93" s="74"/>
-      <c r="I93" s="75"/>
-      <c r="J93" s="72"/>
-      <c r="K93" s="73"/>
-      <c r="L93" s="73"/>
-      <c r="M93" s="74"/>
-      <c r="N93" s="72"/>
-      <c r="O93" s="73"/>
-      <c r="P93" s="74"/>
+      <c r="C93" s="71">
+        <v>56.534123999999998</v>
+      </c>
+      <c r="D93" s="72">
+        <v>48.003230000000002</v>
+      </c>
+      <c r="E93" s="73">
+        <v>65.293594999999996</v>
+      </c>
+      <c r="F93" s="71">
+        <v>59.572400000000002</v>
+      </c>
+      <c r="G93" s="72">
+        <v>57.863</v>
+      </c>
+      <c r="H93" s="73">
+        <v>61.061</v>
+      </c>
+      <c r="I93" s="74">
+        <v>50.298654999999997</v>
+      </c>
+      <c r="J93" s="71">
+        <v>47.935125999999997</v>
+      </c>
+      <c r="K93" s="72">
+        <v>1.766329</v>
+      </c>
+      <c r="L93" s="72">
+        <v>39.741264000000001</v>
+      </c>
+      <c r="M93" s="73">
+        <v>10.557391000000001</v>
+      </c>
+      <c r="N93" s="71">
+        <v>74.119947999999994</v>
+      </c>
+      <c r="O93" s="72">
+        <v>3.0308199999999998</v>
+      </c>
+      <c r="P93" s="73">
+        <v>22.849163999999998</v>
+      </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="65"/>
-      <c r="B94" s="71" t="s">
+      <c r="A94" s="64"/>
+      <c r="B94" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C94" s="72"/>
-      <c r="D94" s="73"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="72"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="74"/>
-      <c r="I94" s="75"/>
-      <c r="J94" s="72"/>
-      <c r="K94" s="73"/>
-      <c r="L94" s="73"/>
-      <c r="M94" s="74"/>
-      <c r="N94" s="72"/>
-      <c r="O94" s="73"/>
-      <c r="P94" s="74"/>
+      <c r="C94" s="71">
+        <v>60.522109999999998</v>
+      </c>
+      <c r="D94" s="72">
+        <v>52.183117000000003</v>
+      </c>
+      <c r="E94" s="73">
+        <v>68.904650000000004</v>
+      </c>
+      <c r="F94" s="71">
+        <v>47.868842000000001</v>
+      </c>
+      <c r="G94" s="72">
+        <v>44.533895000000001</v>
+      </c>
+      <c r="H94" s="73">
+        <v>50.435789</v>
+      </c>
+      <c r="I94" s="74">
+        <v>42.028717</v>
+      </c>
+      <c r="J94" s="71">
+        <v>54.187120999999998</v>
+      </c>
+      <c r="K94" s="72">
+        <v>3.7841740000000001</v>
+      </c>
+      <c r="L94" s="72">
+        <v>33.975375999999997</v>
+      </c>
+      <c r="M94" s="73">
+        <v>8.0533409999999996</v>
+      </c>
+      <c r="N94" s="71">
+        <v>73.398240999999999</v>
+      </c>
+      <c r="O94" s="72">
+        <v>2.9370059999999998</v>
+      </c>
+      <c r="P94" s="73">
+        <v>23.664773</v>
+      </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="65"/>
-      <c r="B95" s="71" t="s">
+      <c r="A95" s="64"/>
+      <c r="B95" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C95" s="72"/>
-      <c r="D95" s="73"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="73"/>
-      <c r="H95" s="74"/>
-      <c r="I95" s="75"/>
-      <c r="J95" s="72"/>
-      <c r="K95" s="73"/>
-      <c r="L95" s="73"/>
-      <c r="M95" s="74"/>
-      <c r="N95" s="72"/>
-      <c r="O95" s="73"/>
-      <c r="P95" s="74"/>
+      <c r="C95" s="71">
+        <v>68.050782999999996</v>
+      </c>
+      <c r="D95" s="72">
+        <v>60.224288999999999</v>
+      </c>
+      <c r="E95" s="73">
+        <v>76.153339000000003</v>
+      </c>
+      <c r="F95" s="71">
+        <v>86.281082999999995</v>
+      </c>
+      <c r="G95" s="72">
+        <v>88.039249999999996</v>
+      </c>
+      <c r="H95" s="73">
+        <v>84.751999999999995</v>
+      </c>
+      <c r="I95" s="74">
+        <v>77.929062000000002</v>
+      </c>
+      <c r="J95" s="71">
+        <v>19.921776999999999</v>
+      </c>
+      <c r="K95" s="72">
+        <v>2.1491600000000002</v>
+      </c>
+      <c r="L95" s="72">
+        <v>57.798184999999997</v>
+      </c>
+      <c r="M95" s="73">
+        <v>20.130877000000002</v>
+      </c>
+      <c r="N95" s="71">
+        <v>76.045101000000003</v>
+      </c>
+      <c r="O95" s="72">
+        <v>3.1960600000000001</v>
+      </c>
+      <c r="P95" s="73">
+        <v>20.758838999999998</v>
+      </c>
     </row>
     <row r="96" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="65"/>
-      <c r="B96" s="76" t="s">
+      <c r="A96" s="64"/>
+      <c r="B96" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="C96" s="77"/>
-      <c r="D96" s="78"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="78"/>
-      <c r="H96" s="79"/>
-      <c r="I96" s="80"/>
-      <c r="J96" s="77"/>
-      <c r="K96" s="78"/>
-      <c r="L96" s="78"/>
-      <c r="M96" s="79"/>
-      <c r="N96" s="77"/>
-      <c r="O96" s="78"/>
-      <c r="P96" s="79"/>
+      <c r="C96" s="76">
+        <v>54.983575999999999</v>
+      </c>
+      <c r="D96" s="77">
+        <v>42.888226000000003</v>
+      </c>
+      <c r="E96" s="78">
+        <v>68.698194000000001</v>
+      </c>
+      <c r="F96" s="76">
+        <v>62.230817999999999</v>
+      </c>
+      <c r="G96" s="77">
+        <v>62.066727</v>
+      </c>
+      <c r="H96" s="78">
+        <v>62.448363999999998</v>
+      </c>
+      <c r="I96" s="79">
+        <v>49.662222999999997</v>
+      </c>
+      <c r="J96" s="76">
+        <v>45.495865999999999</v>
+      </c>
+      <c r="K96" s="77">
+        <v>4.8419080000000001</v>
+      </c>
+      <c r="L96" s="77">
+        <v>36.644643000000002</v>
+      </c>
+      <c r="M96" s="78">
+        <v>13.017580000000001</v>
+      </c>
+      <c r="N96" s="76">
+        <v>70.307713000000007</v>
+      </c>
+      <c r="O96" s="77">
+        <v>2.8654069999999998</v>
+      </c>
+      <c r="P96" s="78">
+        <v>26.824878999999999</v>
+      </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="65"/>
-      <c r="B97" s="85" t="s">
+      <c r="A97" s="64"/>
+      <c r="B97" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="C97" s="86"/>
-      <c r="D97" s="87"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="86"/>
-      <c r="G97" s="87"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="89"/>
-      <c r="J97" s="86"/>
-      <c r="K97" s="87"/>
-      <c r="L97" s="87"/>
-      <c r="M97" s="88"/>
-      <c r="N97" s="86"/>
-      <c r="O97" s="87"/>
-      <c r="P97" s="88"/>
+      <c r="C97" s="85">
+        <v>71.670917000000003</v>
+      </c>
+      <c r="D97" s="86">
+        <v>66.518624000000003</v>
+      </c>
+      <c r="E97" s="87">
+        <v>76.992857999999998</v>
+      </c>
+      <c r="F97" s="85">
+        <v>88.551000000000002</v>
+      </c>
+      <c r="G97" s="86">
+        <v>91.447592999999998</v>
+      </c>
+      <c r="H97" s="87">
+        <v>86.177036999999999</v>
+      </c>
+      <c r="I97" s="88">
+        <v>73.400565</v>
+      </c>
+      <c r="J97" s="85">
+        <v>20.164574000000002</v>
+      </c>
+      <c r="K97" s="86">
+        <v>6.434863</v>
+      </c>
+      <c r="L97" s="86">
+        <v>55.687786000000003</v>
+      </c>
+      <c r="M97" s="87">
+        <v>17.712778</v>
+      </c>
+      <c r="N97" s="85">
+        <v>79.274681000000001</v>
+      </c>
+      <c r="O97" s="86">
+        <v>3.1047639999999999</v>
+      </c>
+      <c r="P97" s="87">
+        <v>17.620553000000001</v>
+      </c>
     </row>
     <row r="98" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="65"/>
-      <c r="B98" s="76" t="s">
+      <c r="A98" s="64"/>
+      <c r="B98" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="C98" s="77"/>
-      <c r="D98" s="78"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="78"/>
-      <c r="H98" s="79"/>
-      <c r="I98" s="80"/>
-      <c r="J98" s="77"/>
-      <c r="K98" s="78"/>
-      <c r="L98" s="78"/>
-      <c r="M98" s="79"/>
-      <c r="N98" s="77"/>
-      <c r="O98" s="78"/>
-      <c r="P98" s="79"/>
+      <c r="C98" s="76">
+        <v>53.353977999999998</v>
+      </c>
+      <c r="D98" s="77">
+        <v>32.797446000000001</v>
+      </c>
+      <c r="E98" s="78">
+        <v>74.960781999999995</v>
+      </c>
+      <c r="F98" s="76">
+        <v>77.106667000000002</v>
+      </c>
+      <c r="G98" s="77">
+        <v>77.353999999999999</v>
+      </c>
+      <c r="H98" s="78">
+        <v>76.369083000000003</v>
+      </c>
+      <c r="I98" s="79">
+        <v>53.044120999999997</v>
+      </c>
+      <c r="J98" s="76">
+        <v>43.924616</v>
+      </c>
+      <c r="K98" s="77">
+        <v>3.0312640000000002</v>
+      </c>
+      <c r="L98" s="77">
+        <v>37.972420999999997</v>
+      </c>
+      <c r="M98" s="78">
+        <v>15.0717</v>
+      </c>
+      <c r="N98" s="76">
+        <v>63.081166000000003</v>
+      </c>
+      <c r="O98" s="77">
+        <v>2.601712</v>
+      </c>
+      <c r="P98" s="78">
+        <v>34.316780000000001</v>
+      </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="91"/>
-      <c r="B99" s="92"/>
-      <c r="C99" s="82"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="82"/>
-      <c r="G99" s="82"/>
-      <c r="H99" s="82"/>
-      <c r="I99" s="82"/>
-      <c r="J99" s="82"/>
-      <c r="K99" s="82"/>
-      <c r="L99" s="82"/>
-      <c r="M99" s="82"/>
-      <c r="N99" s="82"/>
-      <c r="O99" s="82"/>
-      <c r="P99" s="82"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="81"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="81"/>
+      <c r="F99" s="81"/>
+      <c r="G99" s="81"/>
+      <c r="H99" s="81"/>
+      <c r="I99" s="81"/>
+      <c r="J99" s="81"/>
+      <c r="K99" s="81"/>
+      <c r="L99" s="81"/>
+      <c r="M99" s="81"/>
+      <c r="N99" s="81"/>
+      <c r="O99" s="81"/>
+      <c r="P99" s="81"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C100" s="93"/>
-      <c r="D100" s="93"/>
-      <c r="E100" s="93"/>
-      <c r="F100" s="93"/>
-      <c r="G100" s="93"/>
-      <c r="H100" s="93"/>
-      <c r="I100" s="93"/>
-      <c r="J100" s="93"/>
-      <c r="K100" s="93"/>
-      <c r="L100" s="93"/>
-      <c r="M100" s="93"/>
-      <c r="N100" s="93"/>
-      <c r="O100" s="93"/>
-      <c r="P100" s="93"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="92"/>
+      <c r="I100" s="92"/>
+      <c r="J100" s="92"/>
+      <c r="K100" s="92"/>
+      <c r="L100" s="92"/>
+      <c r="M100" s="92"/>
+      <c r="N100" s="92"/>
+      <c r="O100" s="92"/>
+      <c r="P100" s="92"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C101" s="93"/>
-      <c r="D101" s="93"/>
-      <c r="E101" s="93"/>
-      <c r="F101" s="93"/>
-      <c r="G101" s="93"/>
-      <c r="H101" s="93"/>
-      <c r="I101" s="93"/>
-      <c r="J101" s="93"/>
-      <c r="K101" s="93"/>
-      <c r="L101" s="93"/>
-      <c r="M101" s="93"/>
-      <c r="N101" s="93"/>
-      <c r="O101" s="93"/>
-      <c r="P101" s="93"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="92"/>
+      <c r="H101" s="92"/>
+      <c r="I101" s="92"/>
+      <c r="J101" s="92"/>
+      <c r="K101" s="92"/>
+      <c r="L101" s="92"/>
+      <c r="M101" s="92"/>
+      <c r="N101" s="92"/>
+      <c r="O101" s="92"/>
+      <c r="P101" s="92"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C102" s="93"/>
-      <c r="D102" s="93"/>
-      <c r="E102" s="93"/>
-      <c r="F102" s="93"/>
-      <c r="G102" s="93"/>
-      <c r="H102" s="93"/>
-      <c r="I102" s="93"/>
-      <c r="J102" s="93"/>
-      <c r="K102" s="93"/>
-      <c r="L102" s="93"/>
-      <c r="M102" s="93"/>
-      <c r="N102" s="93"/>
-      <c r="O102" s="93"/>
-      <c r="P102" s="93"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="92"/>
+      <c r="H102" s="92"/>
+      <c r="I102" s="92"/>
+      <c r="J102" s="92"/>
+      <c r="K102" s="92"/>
+      <c r="L102" s="92"/>
+      <c r="M102" s="92"/>
+      <c r="N102" s="92"/>
+      <c r="O102" s="92"/>
+      <c r="P102" s="92"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C103" s="93"/>
-      <c r="D103" s="93"/>
-      <c r="E103" s="93"/>
-      <c r="F103" s="93"/>
-      <c r="G103" s="93"/>
-      <c r="H103" s="93"/>
-      <c r="I103" s="93"/>
-      <c r="J103" s="93"/>
-      <c r="K103" s="93"/>
-      <c r="L103" s="93"/>
-      <c r="M103" s="93"/>
-      <c r="N103" s="93"/>
-      <c r="O103" s="93"/>
-      <c r="P103" s="93"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="92"/>
+      <c r="H103" s="92"/>
+      <c r="I103" s="92"/>
+      <c r="J103" s="92"/>
+      <c r="K103" s="92"/>
+      <c r="L103" s="92"/>
+      <c r="M103" s="92"/>
+      <c r="N103" s="92"/>
+      <c r="O103" s="92"/>
+      <c r="P103" s="92"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C104" s="93"/>
-      <c r="D104" s="93"/>
-      <c r="E104" s="93"/>
-      <c r="F104" s="93"/>
-      <c r="G104" s="93"/>
-      <c r="H104" s="93"/>
-      <c r="I104" s="93"/>
-      <c r="J104" s="93"/>
-      <c r="K104" s="93"/>
-      <c r="L104" s="93"/>
-      <c r="M104" s="93"/>
-      <c r="N104" s="93"/>
-      <c r="O104" s="93"/>
-      <c r="P104" s="93"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="92"/>
+      <c r="F104" s="92"/>
+      <c r="G104" s="92"/>
+      <c r="H104" s="92"/>
+      <c r="I104" s="92"/>
+      <c r="J104" s="92"/>
+      <c r="K104" s="92"/>
+      <c r="L104" s="92"/>
+      <c r="M104" s="92"/>
+      <c r="N104" s="92"/>
+      <c r="O104" s="92"/>
+      <c r="P104" s="92"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C105" s="93"/>
-      <c r="D105" s="93"/>
-      <c r="E105" s="93"/>
-      <c r="F105" s="93"/>
-      <c r="G105" s="93"/>
-      <c r="H105" s="93"/>
-      <c r="I105" s="93"/>
-      <c r="J105" s="93"/>
-      <c r="K105" s="93"/>
-      <c r="L105" s="93"/>
-      <c r="M105" s="93"/>
-      <c r="N105" s="93"/>
-      <c r="O105" s="93"/>
-      <c r="P105" s="93"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="92"/>
+      <c r="H105" s="92"/>
+      <c r="I105" s="92"/>
+      <c r="J105" s="92"/>
+      <c r="K105" s="92"/>
+      <c r="L105" s="92"/>
+      <c r="M105" s="92"/>
+      <c r="N105" s="92"/>
+      <c r="O105" s="92"/>
+      <c r="P105" s="92"/>
     </row>
     <row r="106" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="94"/>
-      <c r="C106" s="93"/>
-      <c r="D106" s="93"/>
-      <c r="E106" s="93"/>
-      <c r="F106" s="93"/>
-      <c r="G106" s="93"/>
-      <c r="H106" s="93"/>
-      <c r="I106" s="93"/>
-      <c r="J106" s="93"/>
-      <c r="K106" s="93"/>
-      <c r="L106" s="93"/>
-      <c r="M106" s="93"/>
-      <c r="N106" s="93"/>
-      <c r="O106" s="93"/>
-      <c r="P106" s="93"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="92"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="92"/>
+      <c r="F106" s="92"/>
+      <c r="G106" s="92"/>
+      <c r="H106" s="92"/>
+      <c r="I106" s="92"/>
+      <c r="J106" s="92"/>
+      <c r="K106" s="92"/>
+      <c r="L106" s="92"/>
+      <c r="M106" s="92"/>
+      <c r="N106" s="92"/>
+      <c r="O106" s="92"/>
+      <c r="P106" s="92"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B107" s="95" t="s">
+      <c r="B107" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="C107" s="93"/>
-      <c r="D107" s="93"/>
-      <c r="E107" s="93"/>
-      <c r="F107" s="93"/>
-      <c r="G107" s="93"/>
-      <c r="H107" s="93"/>
-      <c r="I107" s="93"/>
-      <c r="J107" s="93"/>
-      <c r="K107" s="93"/>
-      <c r="L107" s="93"/>
-      <c r="M107" s="93"/>
-      <c r="N107" s="93"/>
-      <c r="O107" s="93"/>
-      <c r="P107" s="93"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="92"/>
+      <c r="G107" s="92"/>
+      <c r="H107" s="92"/>
+      <c r="I107" s="92"/>
+      <c r="J107" s="92"/>
+      <c r="K107" s="92"/>
+      <c r="L107" s="92"/>
+      <c r="M107" s="92"/>
+      <c r="N107" s="92"/>
+      <c r="O107" s="92"/>
+      <c r="P107" s="92"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
-      <c r="C108" s="93"/>
-      <c r="D108" s="93"/>
-      <c r="E108" s="93"/>
-      <c r="F108" s="93"/>
-      <c r="G108" s="93"/>
-      <c r="H108" s="93"/>
-      <c r="I108" s="93"/>
-      <c r="J108" s="93"/>
-      <c r="K108" s="93"/>
-      <c r="L108" s="93"/>
-      <c r="M108" s="93"/>
-      <c r="N108" s="93"/>
-      <c r="O108" s="93"/>
-      <c r="P108" s="93"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="92"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="92"/>
+      <c r="H108" s="92"/>
+      <c r="I108" s="92"/>
+      <c r="J108" s="92"/>
+      <c r="K108" s="92"/>
+      <c r="L108" s="92"/>
+      <c r="M108" s="92"/>
+      <c r="N108" s="92"/>
+      <c r="O108" s="92"/>
+      <c r="P108" s="92"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="C109" s="93"/>
-      <c r="D109" s="93"/>
-      <c r="E109" s="93"/>
-      <c r="F109" s="93"/>
-      <c r="G109" s="93"/>
-      <c r="H109" s="93"/>
-      <c r="I109" s="93"/>
-      <c r="J109" s="93"/>
-      <c r="K109" s="93"/>
-      <c r="L109" s="93"/>
-      <c r="M109" s="93"/>
-      <c r="N109" s="93"/>
-      <c r="O109" s="93"/>
-      <c r="P109" s="93"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="92"/>
+      <c r="F109" s="92"/>
+      <c r="G109" s="92"/>
+      <c r="H109" s="92"/>
+      <c r="I109" s="92"/>
+      <c r="J109" s="92"/>
+      <c r="K109" s="92"/>
+      <c r="L109" s="92"/>
+      <c r="M109" s="92"/>
+      <c r="N109" s="92"/>
+      <c r="O109" s="92"/>
+      <c r="P109" s="92"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="C110" s="93"/>
-      <c r="D110" s="93"/>
-      <c r="E110" s="93"/>
-      <c r="F110" s="93"/>
-      <c r="G110" s="93"/>
-      <c r="H110" s="93"/>
-      <c r="I110" s="93"/>
-      <c r="J110" s="93"/>
-      <c r="K110" s="93"/>
-      <c r="L110" s="93"/>
-      <c r="M110" s="93"/>
-      <c r="N110" s="93"/>
-      <c r="O110" s="93"/>
-      <c r="P110" s="93"/>
+      <c r="C110" s="92"/>
+      <c r="D110" s="92"/>
+      <c r="E110" s="92"/>
+      <c r="F110" s="92"/>
+      <c r="G110" s="92"/>
+      <c r="H110" s="92"/>
+      <c r="I110" s="92"/>
+      <c r="J110" s="92"/>
+      <c r="K110" s="92"/>
+      <c r="L110" s="92"/>
+      <c r="M110" s="92"/>
+      <c r="N110" s="92"/>
+      <c r="O110" s="92"/>
+      <c r="P110" s="92"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B111" s="98" t="s">
+      <c r="B111" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="C111" s="93"/>
-      <c r="D111" s="93"/>
-      <c r="E111" s="93"/>
-      <c r="F111" s="93"/>
-      <c r="G111" s="93"/>
-      <c r="H111" s="93"/>
-      <c r="I111" s="93"/>
-      <c r="J111" s="93"/>
-      <c r="K111" s="93"/>
-      <c r="L111" s="93"/>
-      <c r="M111" s="93"/>
-      <c r="N111" s="93"/>
-      <c r="O111" s="93"/>
-      <c r="P111" s="93"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="92"/>
+      <c r="E111" s="92"/>
+      <c r="F111" s="92"/>
+      <c r="G111" s="92"/>
+      <c r="H111" s="92"/>
+      <c r="I111" s="92"/>
+      <c r="J111" s="92"/>
+      <c r="K111" s="92"/>
+      <c r="L111" s="92"/>
+      <c r="M111" s="92"/>
+      <c r="N111" s="92"/>
+      <c r="O111" s="92"/>
+      <c r="P111" s="92"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C112" s="93"/>
-      <c r="D112" s="93"/>
-      <c r="E112" s="93"/>
-      <c r="F112" s="93"/>
-      <c r="G112" s="93"/>
-      <c r="H112" s="93"/>
-      <c r="I112" s="93"/>
-      <c r="J112" s="93"/>
-      <c r="K112" s="93"/>
-      <c r="L112" s="93"/>
-      <c r="M112" s="93"/>
-      <c r="N112" s="93"/>
-      <c r="O112" s="93"/>
-      <c r="P112" s="93"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="92"/>
+      <c r="E112" s="92"/>
+      <c r="F112" s="92"/>
+      <c r="G112" s="92"/>
+      <c r="H112" s="92"/>
+      <c r="I112" s="92"/>
+      <c r="J112" s="92"/>
+      <c r="K112" s="92"/>
+      <c r="L112" s="92"/>
+      <c r="M112" s="92"/>
+      <c r="N112" s="92"/>
+      <c r="O112" s="92"/>
+      <c r="P112" s="92"/>
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B113" s="96"/>
-      <c r="C113" s="93"/>
-      <c r="D113" s="93"/>
-      <c r="E113" s="93"/>
-      <c r="F113" s="93"/>
-      <c r="G113" s="93"/>
-      <c r="H113" s="93"/>
-      <c r="I113" s="93"/>
-      <c r="J113" s="93"/>
-      <c r="K113" s="93"/>
-      <c r="L113" s="93"/>
-      <c r="M113" s="93"/>
-      <c r="N113" s="93"/>
-      <c r="O113" s="93"/>
-      <c r="P113" s="93"/>
+      <c r="B113" s="95"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="92"/>
+      <c r="E113" s="92"/>
+      <c r="F113" s="92"/>
+      <c r="G113" s="92"/>
+      <c r="H113" s="92"/>
+      <c r="I113" s="92"/>
+      <c r="J113" s="92"/>
+      <c r="K113" s="92"/>
+      <c r="L113" s="92"/>
+      <c r="M113" s="92"/>
+      <c r="N113" s="92"/>
+      <c r="O113" s="92"/>
+      <c r="P113" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:O7"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{623D99D8-291D-42C6-9B99-A1454E9979BB}"/>
-    <hyperlink ref="B105" r:id="rId2" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{E41675D5-BB03-45CA-B6AE-8D0450857BD2}"/>
-    <hyperlink ref="B109" r:id="rId3" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{17112276-0424-437D-A55C-E00D7937DE12}"/>
-    <hyperlink ref="B110" r:id="rId4" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{98B1C24F-A6E2-4153-A1B6-A9249CE56131}"/>
-    <hyperlink ref="B107" r:id="rId5" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{980D5D4A-784F-413F-9E5A-1BC83F5025CC}"/>
-    <hyperlink ref="B112" r:id="rId6" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{90A8AB18-27FF-41ED-A00F-687DE74FA56A}"/>
-    <hyperlink ref="B111" r:id="rId7" xr:uid="{6F474F4F-092B-4A2D-9989-FFA14F149F31}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{6A4F70EF-8CD6-4EC4-915C-5C30740F286D}"/>
+    <hyperlink ref="B105" r:id="rId2" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{79C3CFF2-4D31-479D-B988-0B01D9DB013A}"/>
+    <hyperlink ref="B109" r:id="rId3" xr:uid="{3A101A06-0E32-4C17-AC28-E151945A6562}"/>
+    <hyperlink ref="B110" r:id="rId4" xr:uid="{86006C1E-74F5-45B7-8726-9217F8F5BE45}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{2C5CF806-2E5B-4048-B730-39374A7DE268}"/>
+    <hyperlink ref="B112" r:id="rId6" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{67CB1D1C-4790-4774-B95F-7DB0162AA994}"/>
+    <hyperlink ref="B111" r:id="rId7" xr:uid="{A64DFE86-23E1-463F-8FA9-A7DC8CF7A2B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId8"/>

--- a/AfDD_2025_Annex_Table_Tab07.xlsx
+++ b/AfDD_2025_Annex_Table_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9073333E-4A9B-4504-91C8-AB7AA07AB555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD847327-3FEA-4639-8B18-C4C932612285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{68A91227-3C74-4A23-AB34-CE5C3B3AA707}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{1DC0C37C-C320-474B-975B-B7606B123A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: International Labour Organization - ILOSTAT (retrieved 09/09/2025).</t>
@@ -1586,7 +1586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6934FA4C-5C84-4503-9E78-DA45EF7AFA34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C39E8B-A161-42A2-95FC-055445CE23CC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1594,15 +1594,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="14.140625" style="96" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="96" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="14.1796875" style="96" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="96" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1621,7 +1621,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>8.83948</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>14.732494000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>29.677216000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
@@ -1838,13 +1838,13 @@
         <v>67.902000000000001</v>
       </c>
       <c r="F6" s="17">
-        <v>80.853999999999999</v>
+        <v>89.141000000000005</v>
       </c>
       <c r="G6" s="22">
-        <v>81.061000000000007</v>
+        <v>89.9</v>
       </c>
       <c r="H6" s="23">
-        <v>80.697999999999993</v>
+        <v>88.548000000000002</v>
       </c>
       <c r="I6" s="24">
         <v>32.978721999999998</v>
@@ -1862,16 +1862,16 @@
         <v>0.81346300000000005</v>
       </c>
       <c r="N6" s="17">
-        <v>62.667870999999998</v>
+        <v>65.998649999999998</v>
       </c>
       <c r="O6" s="22">
-        <v>12.625567</v>
+        <v>15.199154</v>
       </c>
       <c r="P6" s="23">
-        <v>24.706562000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>18.802070000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>22.239985999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>11.311959999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>22.334244999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
@@ -2038,13 +2038,13 @@
         <v>64.569999999999993</v>
       </c>
       <c r="F10" s="25">
-        <v>34.012999999999998</v>
+        <v>34.901000000000003</v>
       </c>
       <c r="G10" s="22">
-        <v>33.655999999999999</v>
+        <v>34.648000000000003</v>
       </c>
       <c r="H10" s="23">
-        <v>34.296999999999997</v>
+        <v>35.106999999999999</v>
       </c>
       <c r="I10" s="24">
         <v>11.260826</v>
@@ -2062,16 +2062,16 @@
         <v>0.65776400000000002</v>
       </c>
       <c r="N10" s="25">
-        <v>52.463974</v>
+        <v>52.600037</v>
       </c>
       <c r="O10" s="22">
-        <v>23.018073000000001</v>
+        <v>23.536591000000001</v>
       </c>
       <c r="P10" s="23">
-        <v>24.517952999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23.863371999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>22.049555999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>20.065932</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31"/>
       <c r="B13" s="32" t="s">
         <v>38</v>
@@ -2186,13 +2186,13 @@
         <v>70.921212999999995</v>
       </c>
       <c r="F13" s="33">
-        <v>73.314110999999997</v>
+        <v>74.333556000000002</v>
       </c>
       <c r="G13" s="34">
-        <v>75.054221999999996</v>
+        <v>76.146556000000004</v>
       </c>
       <c r="H13" s="35">
-        <v>71.569556000000006</v>
+        <v>72.531778000000003</v>
       </c>
       <c r="I13" s="36">
         <v>52.632209000000003</v>
@@ -2210,16 +2210,16 @@
         <v>5.7767419999999996</v>
       </c>
       <c r="N13" s="33">
-        <v>67.041246000000001</v>
+        <v>67.038786000000002</v>
       </c>
       <c r="O13" s="34">
-        <v>13.47404</v>
+        <v>13.785012</v>
       </c>
       <c r="P13" s="35">
-        <v>19.484717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>19.176203000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>39</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>8.2399419999999992</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>41</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>17.536922000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>43</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>45</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>28.133834</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>49</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>25.062819999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>55</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>76.089686999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="31"/>
       <c r="B23" s="32" t="s">
         <v>57</v>
@@ -2717,7 +2717,7 @@
         <v>22.620439000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>58</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>24.266687999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>60</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>62</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>64</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>20.290365999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>66</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>22.33747</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>68</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>4.8962529999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>70</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>17.614584000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>72</v>
       </c>
@@ -3084,13 +3084,13 @@
         <v>69.790999999999997</v>
       </c>
       <c r="F31" s="25">
-        <v>86.777000000000001</v>
+        <v>84.269000000000005</v>
       </c>
       <c r="G31" s="22">
-        <v>88.988</v>
+        <v>86.668000000000006</v>
       </c>
       <c r="H31" s="23">
-        <v>84.786000000000001</v>
+        <v>82.171000000000006</v>
       </c>
       <c r="I31" s="24">
         <v>37.981458000000003</v>
@@ -3108,16 +3108,16 @@
         <v>2.3061669999999999</v>
       </c>
       <c r="N31" s="25">
-        <v>71.370444000000006</v>
+        <v>70.493742999999995</v>
       </c>
       <c r="O31" s="22">
-        <v>9.1925779999999992</v>
+        <v>7.9363859999999997</v>
       </c>
       <c r="P31" s="23">
-        <v>19.436976999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>21.569870999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>74</v>
       </c>
@@ -3134,13 +3134,13 @@
         <v>27</v>
       </c>
       <c r="F32" s="25">
-        <v>16.552</v>
+        <v>14.222</v>
       </c>
       <c r="G32" s="22">
-        <v>8.4130000000000003</v>
+        <v>5.84</v>
       </c>
       <c r="H32" s="23">
-        <v>24.727</v>
+        <v>23.016999999999999</v>
       </c>
       <c r="I32" s="24" t="s">
         <v>27</v>
@@ -3158,16 +3158,16 @@
         <v>27</v>
       </c>
       <c r="N32" s="25">
-        <v>82.307194999999993</v>
+        <v>83.971172999999993</v>
       </c>
       <c r="O32" s="22">
-        <v>1.970739</v>
+        <v>1.6521459999999999</v>
       </c>
       <c r="P32" s="23">
-        <v>15.722066</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>14.378831999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>76</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>51.688386999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>78</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>80</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>82</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
         <v>84</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>12.355352</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="31"/>
       <c r="B38" s="32" t="s">
         <v>86</v>
@@ -3432,13 +3432,13 @@
         <v>78.851680000000002</v>
       </c>
       <c r="F38" s="33">
-        <v>75.835583</v>
+        <v>75.432417000000001</v>
       </c>
       <c r="G38" s="34">
-        <v>77.278833000000006</v>
+        <v>76.871082999999999</v>
       </c>
       <c r="H38" s="35">
-        <v>75.207417000000007</v>
+        <v>74.846999999999994</v>
       </c>
       <c r="I38" s="36">
         <v>75.253890999999996</v>
@@ -3456,16 +3456,16 @@
         <v>24.393204000000001</v>
       </c>
       <c r="N38" s="33">
-        <v>78.112369999999999</v>
+        <v>78.049736999999993</v>
       </c>
       <c r="O38" s="34">
-        <v>3.1828219999999998</v>
+        <v>3.1143209999999999</v>
       </c>
       <c r="P38" s="35">
-        <v>18.704808</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>18.835943</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>87</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>89</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>40.674585999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>91</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>93</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>41.534942999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>95</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
         <v>97</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>35.938361</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="31"/>
       <c r="B45" s="32" t="s">
         <v>99</v>
@@ -3813,7 +3813,7 @@
         <v>40.186611999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>100</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>8.9973740000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>102</v>
       </c>
@@ -3880,13 +3880,13 @@
         <v>53.741</v>
       </c>
       <c r="F47" s="25">
-        <v>95.155000000000001</v>
+        <v>93.756</v>
       </c>
       <c r="G47" s="22">
-        <v>97.52</v>
+        <v>96.006</v>
       </c>
       <c r="H47" s="23">
-        <v>92.927000000000007</v>
+        <v>91.558999999999997</v>
       </c>
       <c r="I47" s="24">
         <v>71.277730000000005</v>
@@ -3904,16 +3904,16 @@
         <v>15.432232000000001</v>
       </c>
       <c r="N47" s="25">
-        <v>59.209516999999998</v>
+        <v>82.522205</v>
       </c>
       <c r="O47" s="22">
-        <v>3.0579519999999998</v>
+        <v>2.1879460000000002</v>
       </c>
       <c r="P47" s="23">
-        <v>37.732531000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>15.289866</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>104</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>106</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>16.125710000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>108</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>39.129815000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>110</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>18.730004000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>112</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>33.172905999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>114</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>22.555917999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>116</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>10.908798000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>118</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>30.267924000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>120</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>14.541636</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>122</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>7.567615</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>124</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>33.329891000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>126</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>31.304029</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
         <v>128</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>10.151417</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="31"/>
       <c r="B61" s="32" t="s">
         <v>130</v>
@@ -4578,13 +4578,13 @@
         <v>77.228185999999994</v>
       </c>
       <c r="F61" s="33">
-        <v>89.886538000000002</v>
+        <v>89.778923000000006</v>
       </c>
       <c r="G61" s="34">
-        <v>92.172846000000007</v>
+        <v>92.056385000000006</v>
       </c>
       <c r="H61" s="35">
-        <v>87.664462</v>
+        <v>87.559230999999997</v>
       </c>
       <c r="I61" s="36">
         <v>70.782393999999996</v>
@@ -4602,16 +4602,16 @@
         <v>13.100809</v>
       </c>
       <c r="N61" s="33">
-        <v>81.552915999999996</v>
+        <v>82.919415999999998</v>
       </c>
       <c r="O61" s="34">
-        <v>2.5609069999999998</v>
+        <v>2.5107970000000002</v>
       </c>
       <c r="P61" s="35">
-        <v>15.886174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14.569784</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="58"/>
       <c r="B62" s="59" t="s">
         <v>131</v>
@@ -4626,13 +4626,13 @@
         <v>74.588556999999994</v>
       </c>
       <c r="F62" s="60">
-        <v>80.247614999999996</v>
+        <v>80.322948999999994</v>
       </c>
       <c r="G62" s="61">
-        <v>81.600154000000003</v>
+        <v>81.687949000000003</v>
       </c>
       <c r="H62" s="62">
-        <v>78.922256000000004</v>
+        <v>78.998333000000002</v>
       </c>
       <c r="I62" s="63">
         <v>65.954605999999998</v>
@@ -4650,16 +4650,16 @@
         <v>15.295650999999999</v>
       </c>
       <c r="N62" s="60">
-        <v>73.777591999999999</v>
+        <v>74.190470000000005</v>
       </c>
       <c r="O62" s="61">
-        <v>4.8250130000000002</v>
+        <v>4.8674289999999996</v>
       </c>
       <c r="P62" s="62">
-        <v>21.397393999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20.9421</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="58"/>
       <c r="B63" s="59" t="s">
         <v>132</v>
@@ -4674,13 +4674,13 @@
         <v>73.191265999999999</v>
       </c>
       <c r="F63" s="60">
-        <v>37.673223</v>
+        <v>37.622138</v>
       </c>
       <c r="G63" s="61">
-        <v>37.018999999999998</v>
+        <v>36.903137999999998</v>
       </c>
       <c r="H63" s="62">
-        <v>38.043106000000002</v>
+        <v>38.029915000000003</v>
       </c>
       <c r="I63" s="63">
         <v>40.503301</v>
@@ -4698,16 +4698,16 @@
         <v>8.841075</v>
       </c>
       <c r="N63" s="60">
-        <v>74.570391000000001</v>
+        <v>74.503746000000007</v>
       </c>
       <c r="O63" s="61">
-        <v>2.817059</v>
+        <v>2.7750689999999998</v>
       </c>
       <c r="P63" s="62">
-        <v>22.620412999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22.728971999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="64"/>
       <c r="B64" s="65" t="s">
         <v>133</v>
@@ -4722,13 +4722,13 @@
         <v>74.878276</v>
       </c>
       <c r="F64" s="66">
-        <v>53.26088</v>
+        <v>52.890680000000003</v>
       </c>
       <c r="G64" s="67">
-        <v>50.952199999999998</v>
+        <v>50.63776</v>
       </c>
       <c r="H64" s="68">
-        <v>55.050919999999998</v>
+        <v>54.6614</v>
       </c>
       <c r="I64" s="69">
         <v>33.059672999999997</v>
@@ -4746,16 +4746,16 @@
         <v>3.978701</v>
       </c>
       <c r="N64" s="66">
-        <v>75.743351000000004</v>
+        <v>76.343633999999994</v>
       </c>
       <c r="O64" s="67">
-        <v>4.1551660000000004</v>
+        <v>3.9160789999999999</v>
       </c>
       <c r="P64" s="68">
-        <v>20.101483000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+        <v>19.740286999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="64"/>
       <c r="B65" s="70" t="s">
         <v>134</v>
@@ -4770,13 +4770,13 @@
         <v>74.716256000000001</v>
       </c>
       <c r="F65" s="71">
-        <v>71.847700000000003</v>
+        <v>71.843050000000005</v>
       </c>
       <c r="G65" s="72">
-        <v>71.108099999999993</v>
+        <v>71.110399999999998</v>
       </c>
       <c r="H65" s="73">
-        <v>71.768450000000001</v>
+        <v>71.763999999999996</v>
       </c>
       <c r="I65" s="74">
         <v>53.394198000000003</v>
@@ -4794,16 +4794,16 @@
         <v>12.444715</v>
       </c>
       <c r="N65" s="71">
-        <v>70.215765000000005</v>
+        <v>69.831230000000005</v>
       </c>
       <c r="O65" s="72">
-        <v>1.998278</v>
+        <v>2.0036</v>
       </c>
       <c r="P65" s="73">
-        <v>27.785868000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28.165081000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="64"/>
       <c r="B66" s="75" t="s">
         <v>135</v>
@@ -4818,13 +4818,13 @@
         <v>73.390084999999999</v>
       </c>
       <c r="F66" s="76">
-        <v>50.157443999999998</v>
+        <v>50.143428999999998</v>
       </c>
       <c r="G66" s="77">
-        <v>50.091669000000003</v>
+        <v>50.035525999999997</v>
       </c>
       <c r="H66" s="78">
-        <v>50.030225999999999</v>
+        <v>50.043210999999999</v>
       </c>
       <c r="I66" s="79">
         <v>44.400798999999999</v>
@@ -4842,16 +4842,16 @@
         <v>9.8294999999999995</v>
       </c>
       <c r="N66" s="76">
-        <v>74.448432999999994</v>
+        <v>74.455906999999996</v>
       </c>
       <c r="O66" s="77">
-        <v>3.1259480000000002</v>
+        <v>3.0945830000000001</v>
       </c>
       <c r="P66" s="78">
-        <v>22.432272999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22.456108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="64"/>
       <c r="B67" s="70" t="s">
         <v>136</v>
@@ -4866,13 +4866,13 @@
         <v>73.196517</v>
       </c>
       <c r="F67" s="71">
-        <v>73.332234999999997</v>
+        <v>73.047646999999998</v>
       </c>
       <c r="G67" s="72">
-        <v>73.958471000000003</v>
+        <v>73.670647000000002</v>
       </c>
       <c r="H67" s="73">
-        <v>72.676058999999995</v>
+        <v>72.421646999999993</v>
       </c>
       <c r="I67" s="74">
         <v>66.122135999999998</v>
@@ -4890,16 +4890,16 @@
         <v>18.373975999999999</v>
       </c>
       <c r="N67" s="71">
-        <v>71.2042</v>
+        <v>71.180952000000005</v>
       </c>
       <c r="O67" s="72">
-        <v>3.149241</v>
+        <v>3.1186859999999998</v>
       </c>
       <c r="P67" s="73">
-        <v>25.646560000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <v>25.700364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="64"/>
       <c r="B68" s="70" t="s">
         <v>137</v>
@@ -4914,13 +4914,13 @@
         <v>74.009666999999993</v>
       </c>
       <c r="F68" s="71">
-        <v>85.567420999999996</v>
+        <v>85.493789000000007</v>
       </c>
       <c r="G68" s="72">
-        <v>87.286421000000004</v>
+        <v>87.206737000000004</v>
       </c>
       <c r="H68" s="73">
-        <v>83.922788999999995</v>
+        <v>83.850789000000006</v>
       </c>
       <c r="I68" s="74">
         <v>60.938721999999999</v>
@@ -4938,16 +4938,16 @@
         <v>11.598682</v>
       </c>
       <c r="N68" s="71">
-        <v>73.295608999999999</v>
+        <v>74.210514000000003</v>
       </c>
       <c r="O68" s="72">
-        <v>2.9990640000000002</v>
+        <v>2.965757</v>
       </c>
       <c r="P68" s="73">
-        <v>23.705324000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22.823726000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="64"/>
       <c r="B69" s="70" t="s">
         <v>138</v>
@@ -4962,13 +4962,13 @@
         <v>76.555522999999994</v>
       </c>
       <c r="F69" s="71">
-        <v>91.762600000000006</v>
+        <v>91.260999999999996</v>
       </c>
       <c r="G69" s="72">
-        <v>94.095600000000005</v>
+        <v>93.631600000000006</v>
       </c>
       <c r="H69" s="73">
-        <v>89.579599999999999</v>
+        <v>89.056600000000003</v>
       </c>
       <c r="I69" s="74">
         <v>76.553837999999999</v>
@@ -4986,16 +4986,16 @@
         <v>21.797288999999999</v>
       </c>
       <c r="N69" s="71">
-        <v>76.919528</v>
+        <v>76.847256000000002</v>
       </c>
       <c r="O69" s="72">
-        <v>2.5003790000000001</v>
+        <v>2.422129</v>
       </c>
       <c r="P69" s="73">
-        <v>20.580093000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+        <v>20.730615</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="64"/>
       <c r="B70" s="70" t="s">
         <v>139</v>
@@ -5010,13 +5010,13 @@
         <v>71.844327000000007</v>
       </c>
       <c r="F70" s="71">
-        <v>93.162000000000006</v>
+        <v>92.534999999999997</v>
       </c>
       <c r="G70" s="72">
-        <v>95.307749999999999</v>
+        <v>94.72775</v>
       </c>
       <c r="H70" s="73">
-        <v>91.145499999999998</v>
+        <v>90.491749999999996</v>
       </c>
       <c r="I70" s="74">
         <v>74.891827000000006</v>
@@ -5034,16 +5034,16 @@
         <v>15.738348</v>
       </c>
       <c r="N70" s="71">
-        <v>76.493748999999994</v>
+        <v>76.413148000000007</v>
       </c>
       <c r="O70" s="72">
-        <v>3.478405</v>
+        <v>3.3883350000000001</v>
       </c>
       <c r="P70" s="73">
-        <v>20.027846</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <v>20.198516999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="64"/>
       <c r="B71" s="70" t="s">
         <v>140</v>
@@ -5058,13 +5058,13 @@
         <v>77.228185999999994</v>
       </c>
       <c r="F71" s="71">
-        <v>89.886538000000002</v>
+        <v>89.778923000000006</v>
       </c>
       <c r="G71" s="72">
-        <v>92.172846000000007</v>
+        <v>92.056385000000006</v>
       </c>
       <c r="H71" s="73">
-        <v>87.664462</v>
+        <v>87.559230999999997</v>
       </c>
       <c r="I71" s="74">
         <v>70.782393999999996</v>
@@ -5082,16 +5082,16 @@
         <v>13.100809</v>
       </c>
       <c r="N71" s="71">
-        <v>81.552915999999996</v>
+        <v>82.919415999999998</v>
       </c>
       <c r="O71" s="72">
-        <v>2.5609069999999998</v>
+        <v>2.5107970000000002</v>
       </c>
       <c r="P71" s="73">
-        <v>15.886174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <v>14.569784</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="64"/>
       <c r="B72" s="70" t="s">
         <v>141</v>
@@ -5139,7 +5139,7 @@
         <v>20.216588999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="64"/>
       <c r="B73" s="70" t="s">
         <v>142</v>
@@ -5154,13 +5154,13 @@
         <v>74.622299999999996</v>
       </c>
       <c r="F73" s="71">
-        <v>72.367999999999995</v>
+        <v>72.824332999999996</v>
       </c>
       <c r="G73" s="72">
-        <v>72.930999999999997</v>
+        <v>73.414867000000001</v>
       </c>
       <c r="H73" s="73">
-        <v>71.734267000000003</v>
+        <v>72.197599999999994</v>
       </c>
       <c r="I73" s="74">
         <v>69.299238000000003</v>
@@ -5178,16 +5178,16 @@
         <v>17.358844000000001</v>
       </c>
       <c r="N73" s="71">
-        <v>70.864771000000005</v>
+        <v>70.845065000000005</v>
       </c>
       <c r="O73" s="72">
-        <v>9.1715909999999994</v>
+        <v>9.3947889999999994</v>
       </c>
       <c r="P73" s="73">
-        <v>19.963638</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+        <v>19.760147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="64"/>
       <c r="B74" s="70" t="s">
         <v>143</v>
@@ -5235,7 +5235,7 @@
         <v>37.042341999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="64"/>
       <c r="B75" s="70" t="s">
         <v>144</v>
@@ -5283,7 +5283,7 @@
         <v>10.602323</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="64"/>
       <c r="B76" s="84" t="s">
         <v>145</v>
@@ -5298,13 +5298,13 @@
         <v>77.831822000000003</v>
       </c>
       <c r="F76" s="85">
-        <v>71.600429000000005</v>
+        <v>71.643570999999994</v>
       </c>
       <c r="G76" s="86">
-        <v>71.741714000000002</v>
+        <v>71.772285999999994</v>
       </c>
       <c r="H76" s="87">
-        <v>71.600999999999999</v>
+        <v>71.655000000000001</v>
       </c>
       <c r="I76" s="88">
         <v>47.564239999999998</v>
@@ -5322,16 +5322,16 @@
         <v>12.608043</v>
       </c>
       <c r="N76" s="85">
-        <v>80.812786000000003</v>
+        <v>80.942971</v>
       </c>
       <c r="O76" s="86">
-        <v>1.2872300000000001</v>
+        <v>1.310473</v>
       </c>
       <c r="P76" s="87">
-        <v>17.899982999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+        <v>17.746555000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="64"/>
       <c r="B77" s="70" t="s">
         <v>146</v>
@@ -5346,13 +5346,13 @@
         <v>74.164350999999996</v>
       </c>
       <c r="F77" s="71">
-        <v>55.203231000000002</v>
+        <v>54.801614999999998</v>
       </c>
       <c r="G77" s="72">
-        <v>53.706308</v>
+        <v>53.507154</v>
       </c>
       <c r="H77" s="73">
-        <v>56.174923</v>
+        <v>55.623384999999999</v>
       </c>
       <c r="I77" s="74">
         <v>33.870151</v>
@@ -5370,16 +5370,16 @@
         <v>3.6048849999999999</v>
       </c>
       <c r="N77" s="71">
-        <v>76.269681000000006</v>
+        <v>76.992750000000001</v>
       </c>
       <c r="O77" s="72">
-        <v>4.9600289999999996</v>
+        <v>4.6691349999999998</v>
       </c>
       <c r="P77" s="73">
-        <v>18.770288999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+        <v>18.338115999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="64"/>
       <c r="B78" s="70" t="s">
         <v>147</v>
@@ -5394,13 +5394,13 @@
         <v>63.842973999999998</v>
       </c>
       <c r="F78" s="71">
-        <v>2.5961850000000002</v>
+        <v>2.535593</v>
       </c>
       <c r="G78" s="72">
-        <v>2.9752589999999999</v>
+        <v>2.8571110000000002</v>
       </c>
       <c r="H78" s="73">
-        <v>2.2784439999999999</v>
+        <v>2.2556669999999999</v>
       </c>
       <c r="I78" s="74">
         <v>10.657386000000001</v>
@@ -5418,16 +5418,16 @@
         <v>0.900841</v>
       </c>
       <c r="N78" s="71">
-        <v>82.171028000000007</v>
+        <v>82.303816999999995</v>
       </c>
       <c r="O78" s="72">
-        <v>4.7953060000000001</v>
+        <v>4.6963670000000004</v>
       </c>
       <c r="P78" s="73">
-        <v>13.033664</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12.999814000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="64"/>
       <c r="B79" s="75" t="s">
         <v>148</v>
@@ -5442,13 +5442,13 @@
         <v>68.589034999999996</v>
       </c>
       <c r="F79" s="76">
-        <v>9.5150000000000006</v>
+        <v>9.4875939999999996</v>
       </c>
       <c r="G79" s="77">
-        <v>10.153625</v>
+        <v>10.129875</v>
       </c>
       <c r="H79" s="78">
-        <v>9.0720620000000007</v>
+        <v>9.0340939999999996</v>
       </c>
       <c r="I79" s="79">
         <v>12.398603</v>
@@ -5466,16 +5466,16 @@
         <v>1.444849</v>
       </c>
       <c r="N79" s="76">
-        <v>79.846682000000001</v>
+        <v>79.953193999999996</v>
       </c>
       <c r="O79" s="77">
-        <v>3.666274</v>
+        <v>3.7024180000000002</v>
       </c>
       <c r="P79" s="78">
-        <v>16.487044000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16.344387000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="64"/>
       <c r="B80" s="84" t="s">
         <v>149</v>
@@ -5523,7 +5523,7 @@
         <v>16.692215000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="64"/>
       <c r="B81" s="70" t="s">
         <v>150</v>
@@ -5538,13 +5538,13 @@
         <v>71.164636000000002</v>
       </c>
       <c r="F81" s="71">
-        <v>51.802750000000003</v>
+        <v>52.131875000000001</v>
       </c>
       <c r="G81" s="72">
-        <v>47.466000000000001</v>
+        <v>47.878749999999997</v>
       </c>
       <c r="H81" s="73">
-        <v>53.335000000000001</v>
+        <v>53.596874999999997</v>
       </c>
       <c r="I81" s="74">
         <v>21.077781999999999</v>
@@ -5562,16 +5562,16 @@
         <v>3.1181719999999999</v>
       </c>
       <c r="N81" s="71">
-        <v>72.547555000000003</v>
+        <v>72.650583999999995</v>
       </c>
       <c r="O81" s="72">
-        <v>3.1887310000000002</v>
+        <v>2.9982359999999999</v>
       </c>
       <c r="P81" s="73">
-        <v>24.263714</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+        <v>24.351179999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="64"/>
       <c r="B82" s="70" t="s">
         <v>151</v>
@@ -5586,13 +5586,13 @@
         <v>75.010848999999993</v>
       </c>
       <c r="F82" s="71">
-        <v>79.639171000000005</v>
+        <v>79.723113999999995</v>
       </c>
       <c r="G82" s="72">
-        <v>80.925314</v>
+        <v>81.023143000000005</v>
       </c>
       <c r="H82" s="73">
-        <v>78.343199999999996</v>
+        <v>78.427970999999999</v>
       </c>
       <c r="I82" s="74">
         <v>66.930187000000004</v>
@@ -5610,16 +5610,16 @@
         <v>15.988161</v>
       </c>
       <c r="N82" s="71">
-        <v>73.670330000000007</v>
+        <v>74.102256999999994</v>
       </c>
       <c r="O82" s="72">
-        <v>4.7162100000000002</v>
+        <v>4.7606830000000002</v>
       </c>
       <c r="P82" s="73">
-        <v>21.61346</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21.137060000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="64"/>
       <c r="B83" s="75" t="s">
         <v>152</v>
@@ -5634,13 +5634,13 @@
         <v>73.356437999999997</v>
       </c>
       <c r="F83" s="76">
-        <v>36.358848999999999</v>
+        <v>36.272395000000003</v>
       </c>
       <c r="G83" s="77">
-        <v>36.047186000000004</v>
+        <v>35.882151</v>
       </c>
       <c r="H83" s="78">
-        <v>36.620604999999998</v>
+        <v>36.581826</v>
       </c>
       <c r="I83" s="79">
         <v>41.920293999999998</v>
@@ -5658,16 +5658,16 @@
         <v>9.2585320000000007</v>
       </c>
       <c r="N83" s="76">
-        <v>74.773950999999997</v>
+        <v>74.686588</v>
       </c>
       <c r="O83" s="77">
-        <v>2.7796569999999998</v>
+        <v>2.75305</v>
       </c>
       <c r="P83" s="78">
-        <v>22.455047</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22.568918</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="64"/>
       <c r="B84" s="84" t="s">
         <v>153</v>
@@ -5682,13 +5682,13 @@
         <v>73.725093000000001</v>
       </c>
       <c r="F84" s="85">
-        <v>92.962249999999997</v>
+        <v>92.718062000000003</v>
       </c>
       <c r="G84" s="86">
-        <v>95.056624999999997</v>
+        <v>94.816999999999993</v>
       </c>
       <c r="H84" s="87">
-        <v>90.911438000000004</v>
+        <v>90.662499999999994</v>
       </c>
       <c r="I84" s="88">
         <v>76.084115999999995</v>
@@ -5706,16 +5706,16 @@
         <v>18.8201</v>
       </c>
       <c r="N84" s="85">
-        <v>76.978274999999996</v>
+        <v>78.403726000000006</v>
       </c>
       <c r="O84" s="86">
-        <v>2.3176679999999998</v>
+        <v>2.2129240000000001</v>
       </c>
       <c r="P84" s="87">
-        <v>20.704056000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+        <v>19.38335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="64"/>
       <c r="B85" s="89" t="s">
         <v>154</v>
@@ -5763,7 +5763,7 @@
         <v>41.240088999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="64"/>
       <c r="B86" s="70" t="s">
         <v>155</v>
@@ -5778,13 +5778,13 @@
         <v>75.815262000000004</v>
       </c>
       <c r="F86" s="71">
-        <v>78.389411999999993</v>
+        <v>78.876881999999995</v>
       </c>
       <c r="G86" s="72">
-        <v>80.402587999999994</v>
+        <v>80.922528999999997</v>
       </c>
       <c r="H86" s="73">
-        <v>76.492118000000005</v>
+        <v>76.953881999999993</v>
       </c>
       <c r="I86" s="74">
         <v>62.343243000000001</v>
@@ -5802,16 +5802,16 @@
         <v>12.304982000000001</v>
       </c>
       <c r="N86" s="71">
-        <v>74.619310999999996</v>
+        <v>74.629189999999994</v>
       </c>
       <c r="O86" s="72">
-        <v>3.8159779999999999</v>
+        <v>3.8314859999999999</v>
       </c>
       <c r="P86" s="73">
-        <v>21.564710000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+        <v>21.539321999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="64"/>
       <c r="B87" s="70" t="s">
         <v>156</v>
@@ -5826,13 +5826,13 @@
         <v>76.545745999999994</v>
       </c>
       <c r="F87" s="71">
-        <v>74.998943999999995</v>
+        <v>74.943888999999999</v>
       </c>
       <c r="G87" s="72">
-        <v>74.722611000000001</v>
+        <v>74.6905</v>
       </c>
       <c r="H87" s="73">
-        <v>74.925111000000001</v>
+        <v>74.855277999999998</v>
       </c>
       <c r="I87" s="74">
         <v>64.676243999999997</v>
@@ -5850,16 +5850,16 @@
         <v>14.68872</v>
       </c>
       <c r="N87" s="71">
-        <v>70.148780000000002</v>
+        <v>69.686667</v>
       </c>
       <c r="O87" s="72">
-        <v>1.953489</v>
+        <v>1.9551970000000001</v>
       </c>
       <c r="P87" s="73">
-        <v>27.89762</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+        <v>28.358027</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="64"/>
       <c r="B88" s="70" t="s">
         <v>157</v>
@@ -5874,13 +5874,13 @@
         <v>65.732556000000002</v>
       </c>
       <c r="F88" s="71">
-        <v>51.969250000000002</v>
+        <v>52.191249999999997</v>
       </c>
       <c r="G88" s="72">
-        <v>49.699249999999999</v>
+        <v>49.947249999999997</v>
       </c>
       <c r="H88" s="73">
-        <v>53.677500000000002</v>
+        <v>53.88</v>
       </c>
       <c r="I88" s="74">
         <v>19.061449</v>
@@ -5898,16 +5898,16 @@
         <v>1.2260759999999999</v>
       </c>
       <c r="N88" s="71">
-        <v>53.466611</v>
+        <v>53.580717999999997</v>
       </c>
       <c r="O88" s="72">
-        <v>22.478631</v>
+        <v>22.978207999999999</v>
       </c>
       <c r="P88" s="73">
-        <v>24.054758</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23.441074</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="64"/>
       <c r="B89" s="70" t="s">
         <v>158</v>
@@ -5922,13 +5922,13 @@
         <v>73.223758000000004</v>
       </c>
       <c r="F89" s="71">
-        <v>49.759580999999997</v>
+        <v>49.622613000000001</v>
       </c>
       <c r="G89" s="72">
-        <v>47.910806000000001</v>
+        <v>47.557386999999999</v>
       </c>
       <c r="H89" s="73">
-        <v>50.779257999999999</v>
+        <v>50.778516000000003</v>
       </c>
       <c r="I89" s="74">
         <v>39.740149000000002</v>
@@ -5946,16 +5946,16 @@
         <v>8.6923560000000002</v>
       </c>
       <c r="N89" s="71">
-        <v>72.821394999999995</v>
+        <v>73.166820000000001</v>
       </c>
       <c r="O89" s="72">
-        <v>3.574808</v>
+        <v>3.4292769999999999</v>
       </c>
       <c r="P89" s="73">
-        <v>23.63327</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23.433306000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="64"/>
       <c r="B90" s="75" t="s">
         <v>159</v>
@@ -5970,13 +5970,13 @@
         <v>68.330127000000005</v>
       </c>
       <c r="F90" s="76">
-        <v>11.837432</v>
+        <v>11.794364</v>
       </c>
       <c r="G90" s="77">
-        <v>11.512226999999999</v>
+        <v>11.468363999999999</v>
       </c>
       <c r="H90" s="78">
-        <v>12.139818</v>
+        <v>12.101864000000001</v>
       </c>
       <c r="I90" s="79">
         <v>8.4637840000000004</v>
@@ -5994,16 +5994,16 @@
         <v>0.74952600000000003</v>
       </c>
       <c r="N90" s="76">
-        <v>83.115652999999995</v>
+        <v>83.264769000000001</v>
       </c>
       <c r="O90" s="77">
-        <v>3.3976799999999998</v>
+        <v>3.3935559999999998</v>
       </c>
       <c r="P90" s="78">
-        <v>13.486667000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+        <v>13.341673999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="64"/>
       <c r="B91" s="84" t="s">
         <v>160</v>
@@ -6018,13 +6018,13 @@
         <v>75.224592999999999</v>
       </c>
       <c r="F91" s="85">
-        <v>90.122808000000006</v>
+        <v>90.291269</v>
       </c>
       <c r="G91" s="86">
-        <v>92.783000000000001</v>
+        <v>92.975499999999997</v>
       </c>
       <c r="H91" s="87">
-        <v>87.983192000000003</v>
+        <v>88.131923</v>
       </c>
       <c r="I91" s="88">
         <v>77.595091999999994</v>
@@ -6042,16 +6042,16 @@
         <v>20.706562000000002</v>
       </c>
       <c r="N91" s="85">
-        <v>76.468618000000006</v>
+        <v>77.358963000000003</v>
       </c>
       <c r="O91" s="86">
-        <v>2.9828960000000002</v>
+        <v>2.9361790000000001</v>
       </c>
       <c r="P91" s="87">
-        <v>20.548483999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+        <v>19.704857000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="64"/>
       <c r="B92" s="70" t="s">
         <v>161</v>
@@ -6099,7 +6099,7 @@
         <v>28.540165999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="64"/>
       <c r="B93" s="70" t="s">
         <v>162</v>
@@ -6114,13 +6114,13 @@
         <v>65.293594999999996</v>
       </c>
       <c r="F93" s="71">
-        <v>59.572400000000002</v>
+        <v>59.106400000000001</v>
       </c>
       <c r="G93" s="72">
-        <v>57.863</v>
+        <v>57.348399999999998</v>
       </c>
       <c r="H93" s="73">
-        <v>61.061</v>
+        <v>60.719000000000001</v>
       </c>
       <c r="I93" s="74">
         <v>50.298654999999997</v>
@@ -6138,16 +6138,16 @@
         <v>10.557391000000001</v>
       </c>
       <c r="N93" s="71">
-        <v>74.119947999999994</v>
+        <v>74.189918000000006</v>
       </c>
       <c r="O93" s="72">
-        <v>3.0308199999999998</v>
+        <v>3.0185080000000002</v>
       </c>
       <c r="P93" s="73">
-        <v>22.849163999999998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22.791574000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="64"/>
       <c r="B94" s="70" t="s">
         <v>163</v>
@@ -6162,13 +6162,13 @@
         <v>68.904650000000004</v>
       </c>
       <c r="F94" s="71">
-        <v>47.868842000000001</v>
+        <v>47.785842000000002</v>
       </c>
       <c r="G94" s="72">
-        <v>44.533895000000001</v>
+        <v>44.054420999999998</v>
       </c>
       <c r="H94" s="73">
-        <v>50.435789</v>
+        <v>50.597842</v>
       </c>
       <c r="I94" s="74">
         <v>42.028717</v>
@@ -6186,16 +6186,16 @@
         <v>8.0533409999999996</v>
       </c>
       <c r="N94" s="71">
-        <v>73.398240999999999</v>
+        <v>77.660971000000004</v>
       </c>
       <c r="O94" s="72">
-        <v>2.9370059999999998</v>
+        <v>2.629051</v>
       </c>
       <c r="P94" s="73">
-        <v>23.664773</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+        <v>19.709983000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="64"/>
       <c r="B95" s="70" t="s">
         <v>164</v>
@@ -6210,13 +6210,13 @@
         <v>76.153339000000003</v>
       </c>
       <c r="F95" s="71">
-        <v>86.281082999999995</v>
+        <v>86.646083000000004</v>
       </c>
       <c r="G95" s="72">
-        <v>88.039249999999996</v>
+        <v>88.456333000000001</v>
       </c>
       <c r="H95" s="73">
-        <v>84.751999999999995</v>
+        <v>85.074250000000006</v>
       </c>
       <c r="I95" s="74">
         <v>77.929062000000002</v>
@@ -6234,16 +6234,16 @@
         <v>20.130877000000002</v>
       </c>
       <c r="N95" s="71">
-        <v>76.045101000000003</v>
+        <v>77.612714999999994</v>
       </c>
       <c r="O95" s="72">
-        <v>3.1960600000000001</v>
+        <v>3.1140119999999998</v>
       </c>
       <c r="P95" s="73">
-        <v>20.758838999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19.273274000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="64"/>
       <c r="B96" s="75" t="s">
         <v>165</v>
@@ -6258,13 +6258,13 @@
         <v>68.698194000000001</v>
       </c>
       <c r="F96" s="76">
-        <v>62.230817999999999</v>
+        <v>62.347273000000001</v>
       </c>
       <c r="G96" s="77">
-        <v>62.066727</v>
+        <v>62.116</v>
       </c>
       <c r="H96" s="78">
-        <v>62.448363999999998</v>
+        <v>62.626908999999998</v>
       </c>
       <c r="I96" s="79">
         <v>49.662222999999997</v>
@@ -6282,16 +6282,16 @@
         <v>13.017580000000001</v>
       </c>
       <c r="N96" s="76">
-        <v>70.307713000000007</v>
+        <v>70.418625000000006</v>
       </c>
       <c r="O96" s="77">
-        <v>2.8654069999999998</v>
+        <v>2.8206669999999998</v>
       </c>
       <c r="P96" s="78">
-        <v>26.824878999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+        <v>26.758692</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="64"/>
       <c r="B97" s="84" t="s">
         <v>166</v>
@@ -6306,13 +6306,13 @@
         <v>76.992857999999998</v>
       </c>
       <c r="F97" s="85">
-        <v>88.551000000000002</v>
+        <v>88.406295999999998</v>
       </c>
       <c r="G97" s="86">
-        <v>91.447592999999998</v>
+        <v>91.305593000000002</v>
       </c>
       <c r="H97" s="87">
-        <v>86.177036999999999</v>
+        <v>86.029518999999993</v>
       </c>
       <c r="I97" s="88">
         <v>73.400565</v>
@@ -6330,16 +6330,16 @@
         <v>17.712778</v>
       </c>
       <c r="N97" s="85">
-        <v>79.274681000000001</v>
+        <v>79.867075</v>
       </c>
       <c r="O97" s="86">
-        <v>3.1047639999999999</v>
+        <v>3.0619320000000001</v>
       </c>
       <c r="P97" s="87">
-        <v>17.620553000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17.070992</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="64"/>
       <c r="B98" s="75" t="s">
         <v>167</v>
@@ -6387,7 +6387,7 @@
         <v>34.316780000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="90"/>
       <c r="B99" s="91"/>
       <c r="C99" s="81"/>
@@ -6405,7 +6405,7 @@
       <c r="O99" s="81"/>
       <c r="P99" s="81"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>168</v>
       </c>
@@ -6424,7 +6424,7 @@
       <c r="O100" s="92"/>
       <c r="P100" s="92"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>169</v>
       </c>
@@ -6443,7 +6443,7 @@
       <c r="O101" s="92"/>
       <c r="P101" s="92"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>170</v>
       </c>
@@ -6462,7 +6462,7 @@
       <c r="O102" s="92"/>
       <c r="P102" s="92"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>171</v>
       </c>
@@ -6481,7 +6481,7 @@
       <c r="O103" s="92"/>
       <c r="P103" s="92"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>172</v>
       </c>
@@ -6500,7 +6500,7 @@
       <c r="O104" s="92"/>
       <c r="P104" s="92"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C105" s="92"/>
       <c r="D105" s="92"/>
       <c r="E105" s="92"/>
@@ -6516,7 +6516,7 @@
       <c r="O105" s="92"/>
       <c r="P105" s="92"/>
     </row>
-    <row r="106" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="93"/>
       <c r="C106" s="92"/>
       <c r="D106" s="92"/>
@@ -6533,7 +6533,7 @@
       <c r="O106" s="92"/>
       <c r="P106" s="92"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B107" s="94" t="s">
         <v>173</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="O107" s="92"/>
       <c r="P107" s="92"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="92"/>
       <c r="D108" s="92"/>
@@ -6569,7 +6569,7 @@
       <c r="O108" s="92"/>
       <c r="P108" s="92"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B109" s="97" t="s">
         <v>175</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="O109" s="92"/>
       <c r="P109" s="92"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="97" t="s">
         <v>176</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="O110" s="92"/>
       <c r="P110" s="92"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B111" s="97" t="s">
         <v>177</v>
       </c>
@@ -6626,7 +6626,7 @@
       <c r="O111" s="92"/>
       <c r="P111" s="92"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>174</v>
       </c>
@@ -6645,7 +6645,7 @@
       <c r="O112" s="92"/>
       <c r="P112" s="92"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="95"/>
       <c r="C113" s="92"/>
       <c r="D113" s="92"/>
@@ -6664,13 +6664,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{6A4F70EF-8CD6-4EC4-915C-5C30740F286D}"/>
-    <hyperlink ref="B105" r:id="rId2" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{79C3CFF2-4D31-479D-B988-0B01D9DB013A}"/>
-    <hyperlink ref="B109" r:id="rId3" xr:uid="{3A101A06-0E32-4C17-AC28-E151945A6562}"/>
-    <hyperlink ref="B110" r:id="rId4" xr:uid="{86006C1E-74F5-45B7-8726-9217F8F5BE45}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{2C5CF806-2E5B-4048-B730-39374A7DE268}"/>
-    <hyperlink ref="B112" r:id="rId6" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{67CB1D1C-4790-4774-B95F-7DB0162AA994}"/>
-    <hyperlink ref="B111" r:id="rId7" xr:uid="{A64DFE86-23E1-463F-8FA9-A7DC8CF7A2B1}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A28CE628-2211-42B1-BCEA-4B4B66D5BC3D}"/>
+    <hyperlink ref="B105" r:id="rId2" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{3BF926C7-F09C-4D97-AE47-528BE8236B51}"/>
+    <hyperlink ref="B109" r:id="rId3" xr:uid="{7C9D501E-EA1E-4F88-9A2A-61FB0C14F36E}"/>
+    <hyperlink ref="B110" r:id="rId4" xr:uid="{B9DD83A9-F6B8-4852-871E-4D99092C44EA}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{795895FD-B071-4097-B1FD-9ECF0339BD26}"/>
+    <hyperlink ref="B112" r:id="rId6" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{E5C5BEF0-309C-48C5-ACCB-BC0822595153}"/>
+    <hyperlink ref="B111" r:id="rId7" xr:uid="{57F481C4-BF07-4680-A2FF-CFED70357CC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId8"/>

--- a/AfDD_2025_Annex_Table_Tab07.xlsx
+++ b/AfDD_2025_Annex_Table_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD847327-3FEA-4639-8B18-C4C932612285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A1EDD42-1A51-4812-8E24-16B2D2AD368D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{1DC0C37C-C320-474B-975B-B7606B123A4A}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC992C-5370-4232-93AE-280F100330E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: International Labour Organization - ILOSTAT (retrieved 09/09/2025).</t>
@@ -561,16 +561,16 @@
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
   </si>
   <si>
+    <t>CLICK HERE to go to the list of indicators, descriptions and details for more information about the indicators presented in this table.</t>
+  </si>
+  <si>
+    <t>CLICK HERE to go the list of countries, and country groupings used for aggregating indicators and see which countries belong to each country grouping.</t>
+  </si>
+  <si>
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>CLICK HERE to go to the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,16 +712,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1026,7 +1016,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1302,7 +1292,6 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1586,11 +1575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C39E8B-A161-42A2-95FC-055445CE23CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B49E6F-8461-4837-AE0A-AA6B3E6DEFAF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P113"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1598,8 +1587,8 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="14.1796875" style="96" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="14.1796875" style="95" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6533,10 +6522,8 @@
       <c r="O106" s="92"/>
       <c r="P106" s="92"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B107" s="94" t="s">
-        <v>173</v>
-      </c>
+    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="93"/>
       <c r="C107" s="92"/>
       <c r="D107" s="92"/>
       <c r="E107" s="92"/>
@@ -6553,7 +6540,9 @@
       <c r="P107" s="92"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="96" t="s">
+        <v>173</v>
+      </c>
       <c r="C108" s="92"/>
       <c r="D108" s="92"/>
       <c r="E108" s="92"/>
@@ -6570,9 +6559,7 @@
       <c r="P108" s="92"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B109" s="97" t="s">
-        <v>175</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="92"/>
       <c r="D109" s="92"/>
       <c r="E109" s="92"/>
@@ -6589,8 +6576,8 @@
       <c r="P109" s="92"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B110" s="97" t="s">
-        <v>176</v>
+      <c r="B110" s="96" t="s">
+        <v>174</v>
       </c>
       <c r="C110" s="92"/>
       <c r="D110" s="92"/>
@@ -6608,8 +6595,8 @@
       <c r="P110" s="92"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B111" s="97" t="s">
-        <v>177</v>
+      <c r="B111" s="96" t="s">
+        <v>175</v>
       </c>
       <c r="C111" s="92"/>
       <c r="D111" s="92"/>
@@ -6627,8 +6614,8 @@
       <c r="P111" s="92"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>174</v>
+      <c r="B112" s="96" t="s">
+        <v>177</v>
       </c>
       <c r="C112" s="92"/>
       <c r="D112" s="92"/>
@@ -6646,7 +6633,9 @@
       <c r="P112" s="92"/>
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B113" s="95"/>
+      <c r="B113" s="96" t="s">
+        <v>176</v>
+      </c>
       <c r="C113" s="92"/>
       <c r="D113" s="92"/>
       <c r="E113" s="92"/>
@@ -6662,18 +6651,34 @@
       <c r="O113" s="92"/>
       <c r="P113" s="92"/>
     </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B114" s="94"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="92"/>
+      <c r="F114" s="92"/>
+      <c r="G114" s="92"/>
+      <c r="H114" s="92"/>
+      <c r="I114" s="92"/>
+      <c r="J114" s="92"/>
+      <c r="K114" s="92"/>
+      <c r="L114" s="92"/>
+      <c r="M114" s="92"/>
+      <c r="N114" s="92"/>
+      <c r="O114" s="92"/>
+      <c r="P114" s="92"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A28CE628-2211-42B1-BCEA-4B4B66D5BC3D}"/>
-    <hyperlink ref="B105" r:id="rId2" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{3BF926C7-F09C-4D97-AE47-528BE8236B51}"/>
-    <hyperlink ref="B109" r:id="rId3" xr:uid="{7C9D501E-EA1E-4F88-9A2A-61FB0C14F36E}"/>
-    <hyperlink ref="B110" r:id="rId4" xr:uid="{B9DD83A9-F6B8-4852-871E-4D99092C44EA}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{795895FD-B071-4097-B1FD-9ECF0339BD26}"/>
-    <hyperlink ref="B112" r:id="rId6" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{E5C5BEF0-309C-48C5-ACCB-BC0822595153}"/>
-    <hyperlink ref="B111" r:id="rId7" xr:uid="{57F481C4-BF07-4680-A2FF-CFED70357CC4}"/>
+    <hyperlink ref="B105" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{A8833033-4DA7-442A-AD9F-9675D2CEA595}"/>
+    <hyperlink ref="B110" r:id="rId2" xr:uid="{A83DD7E7-93E6-4B97-BFB7-ACF9B42B6042}"/>
+    <hyperlink ref="B111" r:id="rId3" xr:uid="{FAAFA807-6DF7-4492-B138-F13227DEF9CF}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{A0162E57-BBF0-48F7-B156-18B62BB70D7A}"/>
+    <hyperlink ref="B113" r:id="rId5" xr:uid="{DA1C73F1-B29C-4D3F-81A7-F4362B3EC26C}"/>
+    <hyperlink ref="B112" r:id="rId6" xr:uid="{70DA29B8-7CFD-4AC1-B38C-0566C59DAA97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
